--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C30338-944C-446F-A24D-1085F0D3C9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D33954-C7CE-4F05-B003-43ACAC4DDF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="10" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -28,16 +28,16 @@
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="13" r:id="rId12"/>
-    <pivotCache cacheId="16" r:id="rId13"/>
-    <pivotCache cacheId="19" r:id="rId14"/>
-    <pivotCache cacheId="22" r:id="rId15"/>
-    <pivotCache cacheId="25" r:id="rId16"/>
-    <pivotCache cacheId="28" r:id="rId17"/>
-    <pivotCache cacheId="31" r:id="rId18"/>
-    <pivotCache cacheId="34" r:id="rId19"/>
-    <pivotCache cacheId="37" r:id="rId20"/>
-    <pivotCache cacheId="40" r:id="rId21"/>
-    <pivotCache cacheId="43" r:id="rId22"/>
+    <pivotCache cacheId="19" r:id="rId13"/>
+    <pivotCache cacheId="28" r:id="rId14"/>
+    <pivotCache cacheId="31" r:id="rId15"/>
+    <pivotCache cacheId="34" r:id="rId16"/>
+    <pivotCache cacheId="37" r:id="rId17"/>
+    <pivotCache cacheId="49" r:id="rId18"/>
+    <pivotCache cacheId="55" r:id="rId19"/>
+    <pivotCache cacheId="70" r:id="rId20"/>
+    <pivotCache cacheId="73" r:id="rId21"/>
+    <pivotCache cacheId="76" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Etykiety wierszy</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>Suma końcowa</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Pełny</t>
   </si>
   <si>
-    <t>304</t>
-  </si>
-  <si>
     <t>Treść Pytań</t>
   </si>
   <si>
@@ -183,48 +177,6 @@
     <t>Liczba pytań</t>
   </si>
   <si>
-    <t>Test question 1</t>
-  </si>
-  <si>
-    <t>Test question 2</t>
-  </si>
-  <si>
-    <t>Test question 3</t>
-  </si>
-  <si>
-    <t>Test question 4</t>
-  </si>
-  <si>
-    <t>Test question 5</t>
-  </si>
-  <si>
-    <t>Test question 6</t>
-  </si>
-  <si>
-    <t>Test question 8</t>
-  </si>
-  <si>
-    <t>Test question 9</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
-    <t>34567890123</t>
-  </si>
-  <si>
-    <t>45678901234</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Piotr Wisniewski</t>
-  </si>
-  <si>
-    <t>Katarzyna Zielinska</t>
-  </si>
-  <si>
     <t>Czy Istnieja Powiazane Incydenty</t>
   </si>
   <si>
@@ -241,6 +193,66 @@
   </si>
   <si>
     <t>Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Wtorek</t>
+  </si>
+  <si>
+    <t>Piątek</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>14033088603</t>
+  </si>
+  <si>
+    <t>Julianna Pastuszko</t>
+  </si>
+  <si>
+    <t>16012095392</t>
+  </si>
+  <si>
+    <t>Jędrzej Łyś</t>
+  </si>
+  <si>
+    <t>16041843005</t>
+  </si>
+  <si>
+    <t>Julianna Smykla</t>
+  </si>
+  <si>
+    <t>19021081589</t>
+  </si>
+  <si>
+    <t>Nicole Reiter</t>
+  </si>
+  <si>
+    <t>88080444314</t>
+  </si>
+  <si>
+    <t>Fabian Namysł</t>
+  </si>
+  <si>
+    <t>97030363487</t>
+  </si>
+  <si>
+    <t>Julianna Romaniak</t>
   </si>
 </sst>
 </file>
@@ -793,14 +805,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.68049583333" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.78177858796" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="38" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="41" level="32767"/>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -810,7 +830,14 @@
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -822,21 +849,11 @@
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -853,14 +870,14 @@
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
   </cacheHierarchies>
@@ -936,20 +953,181 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680519097223" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783138541665" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="43" level="32767"/>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="44">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783231365742" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
     <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
       <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024]" c="2024"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
       <sharedItems count="3">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
       </sharedItems>
       <mpMap v="4"/>
     </cacheField>
@@ -959,7 +1137,7 @@
     <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
         <n v="1"/>
-        <n v="2"/>
+        <n v="3"/>
         <n v="4"/>
       </sharedItems>
     </cacheField>
@@ -1092,36 +1270,28 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680520717593" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781793518516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="41" level="32767"/>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024]" c="2024"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia]" caption="Dzien Tygodnia" numFmtId="0" hierarchy="4" level="1" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Dzien Tygodnia].&amp;[Poniedziałek]" c="Poniedziałek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Wtorek]" c="Wtorek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Środa]" c="Środa"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Czwartek]" c="Czwartek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Piątek]" c="Piątek"/>
       </sharedItems>
+      <mpMap v="2"/>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
+    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia].[Numer Dnia Tygodnia]" caption="Numer Dnia Tygodnia" propertyName="Numer Dnia Tygodnia" numFmtId="0" hierarchy="4" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6" count="5">
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
+        <n v="6"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1130,15 +1300,13 @@
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -1173,12 +1341,12 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
   </cacheHierarchies>
@@ -1253,12 +1421,177 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680497106485" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781809722219" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="33" level="32767"/>
+    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="44">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781814814814" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
+    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
+      <sharedItems count="5">
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -1279,22 +1612,27 @@
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -1388,159 +1726,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680501736111" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="3">
-        <s v="[Egzaminator].[Pesel].&amp;[12345678901]" c="12345678901"/>
-        <s v="[Egzaminator].[Pesel].&amp;[34567890123]" c="34567890123"/>
-        <s v="[Egzaminator].[Pesel].&amp;[45678901234]" c="45678901234"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="3">
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jan Kowalski]" c="Jan Kowalski"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Katarzyna Zielinska]" c="Katarzyna Zielinska"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Piotr Wisniewski]" c="Piotr Wisniewski"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="44">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680504861113" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.78181782407" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="39" level="32767"/>
@@ -1691,17 +1878,169 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680506597222" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781820949072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
-      <sharedItems count="1">
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[304]" c="304"/>
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="39" level="32767"/>
+    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="6">
+        <s v="[Egzaminator].[Pesel].&amp;[14033088603]" c="14033088603"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16012095392]" c="16012095392"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16041843005]" c="16041843005"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19021081589]" c="19021081589"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88080444314]" c="88080444314"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97030363487]" c="97030363487"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems count="6">
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="44">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.782086921296" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -1722,27 +2061,22 @@
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -1836,34 +2170,16 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680509722224" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.782208101853" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="33" level="32767"/>
-    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="38" level="32767"/>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024]" c="2024"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Marzec]" c="Marzec"/>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="2">
-        <n v="1"/>
-        <n v="3"/>
-      </sharedItems>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="44">
@@ -1872,14 +2188,7 @@
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -1891,37 +2200,42 @@
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -1999,30 +2313,27 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680512615741" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783063773146" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
+  <cacheFields count="4">
     <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="42" level="32767"/>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024]" c="2024"/>
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
       <sharedItems count="5">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
       </sharedItems>
-      <mpMap v="4"/>
+      <mpMap v="3"/>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
         <n v="1"/>
         <n v="2"/>
@@ -2038,17 +2349,20 @@
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -2160,314 +2474,487 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680515509259" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="43" level="32767"/>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024]" c="2024"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2024].&amp;[Kwiecień]" c="Kwiecień"/>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="44">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="1">
+        <item c="1" x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="44">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="4"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="5"/>
+  </rowHierarchiesUsage>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
-</pivotCacheDefinition>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45613.680517824076" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia]" caption="Dzien Tygodnia" numFmtId="0" hierarchy="4" level="1" mappingCount="1">
-      <sharedItems count="3">
-        <s v="[Data].[Dzien Tygodnia].&amp;[Poniedziałek]" c="Poniedziałek"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Środa]" c="Środa"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Czwartek]" c="Czwartek"/>
-      </sharedItems>
-      <mpMap v="2"/>
-    </cacheField>
-    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia].[Numer Dnia Tygodnia]" caption="Numer Dnia Tygodnia" propertyName="Numer Dnia Tygodnia" numFmtId="0" hierarchy="4" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="44">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="44">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
-</pivotCacheDefinition>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
+    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="44">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="2" level="1">
+        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
+        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="1">
+        <item c="1" x="0" d="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="44">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="4"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="5"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="44">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="2"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2586,517 +3073,25 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
-    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="2" level="1">
-        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
-        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="1">
-        <item c="1" x="0" d="1"/>
+        <item x="0"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="3">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="4"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="2"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="4">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="4"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="5">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-        <item c="1" x="4"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="2">
@@ -3138,9 +3133,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="1">
-        <mp field="4"/>
+        <mp field="3"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -3164,8 +3161,6 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3183,8 +3178,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3199,37 +3195,25 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="2">
         <item c="1" x="0"/>
-        <item c="1" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -3310,13 +3294,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
+      <items count="5">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -3324,9 +3312,21 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="6">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3403,8 +3403,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -3424,38 +3424,6 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
   <pageFields count="1">
     <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]" cap="Treść Pytań"/>
   </pageFields>
@@ -3524,22 +3492,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3547,24 +3521,42 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -3935,7 +3927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11567-615D-40F7-9207-59265D9F3B66}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -3957,56 +3949,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>243.35829228243023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20.833333333333332</v>
+        <v>243.35829228243023</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3973,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4030,21 +3984,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s" vm="4">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4055,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7397F8AF-9ADC-4FA6-B232-EDD543464538}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4067,29 +4019,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" vm="5">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" vm="6">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4100,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,21 +4065,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4137,23 +4087,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4163,7 +4113,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C9E68A-6351-46D3-AC79-DF0F7FA7E8BC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
@@ -4180,39 +4130,55 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5</v>
+        <v>12.108910891089108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>3.3333333333333335</v>
+        <v>12.054726368159203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>12.041050903119869</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>2.3333333333333335</v>
+        <v>12.074380165289256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11.97427652733119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12.050246305418719</v>
       </c>
     </row>
   </sheetData>
@@ -4222,10 +4188,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1B5BA-D48C-4270-B24E-1BE835D32419}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4240,18 +4206,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -4259,15 +4225,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -4275,18 +4241,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>24355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>26155</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4273,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4314,61 +4288,61 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>29.40909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>27.988636363636363</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>32.037878787878789</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>31.102272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>18.450757575757574</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>1.75</v>
+        <v>138.98863636363637</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CFB149-A7B9-4595-BF26-9A0857676217}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -4393,10 +4367,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" vm="1">
         <v>17</v>
-      </c>
-      <c r="B1" t="s" vm="1">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4404,37 +4378,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -4444,7 +4404,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE84421A-D5DE-40EA-A019-479180B1751A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -4458,10 +4418,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" vm="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4469,23 +4429,55 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4487,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396E4A6-D249-4F8F-BBB0-833858200275}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
@@ -4509,10 +4501,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s" vm="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4520,79 +4512,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4602,7 +4522,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68659609-96BE-43A8-866E-45E48E4CABC3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4610,7 +4530,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4619,57 +4539,99 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D33954-C7CE-4F05-B003-43ACAC4DDF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3647586-FB6C-4CDE-8130-9F4E1221DF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId12"/>
-    <pivotCache cacheId="19" r:id="rId13"/>
-    <pivotCache cacheId="28" r:id="rId14"/>
-    <pivotCache cacheId="31" r:id="rId15"/>
-    <pivotCache cacheId="34" r:id="rId16"/>
-    <pivotCache cacheId="37" r:id="rId17"/>
-    <pivotCache cacheId="49" r:id="rId18"/>
-    <pivotCache cacheId="55" r:id="rId19"/>
-    <pivotCache cacheId="70" r:id="rId20"/>
-    <pivotCache cacheId="73" r:id="rId21"/>
-    <pivotCache cacheId="76" r:id="rId22"/>
+    <pivotCache cacheId="151" r:id="rId12"/>
+    <pivotCache cacheId="154" r:id="rId13"/>
+    <pivotCache cacheId="157" r:id="rId14"/>
+    <pivotCache cacheId="166" r:id="rId15"/>
+    <pivotCache cacheId="169" r:id="rId16"/>
+    <pivotCache cacheId="172" r:id="rId17"/>
+    <pivotCache cacheId="175" r:id="rId18"/>
+    <pivotCache cacheId="178" r:id="rId19"/>
+    <pivotCache cacheId="190" r:id="rId20"/>
+    <pivotCache cacheId="214" r:id="rId21"/>
+    <pivotCache cacheId="247" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -805,42 +805,51 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.78177858796" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755028587962" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="41" level="32767"/>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+      </sharedItems>
+      <mpMap v="3"/>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -863,21 +872,22 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
   </cacheHierarchies>
@@ -953,39 +963,40 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783138541665" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.760673611112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="43" level="32767"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
+    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
     <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
       <sharedItems count="1">
         <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="5">
+      <sharedItems count="4">
         <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
       </sharedItems>
-      <mpMap v="4"/>
+      <mpMap v="5"/>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
-        <n v="5"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -994,9 +1005,9 @@
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
       <fieldsUsage count="4">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
         <fieldUsage x="2"/>
         <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
@@ -1021,12 +1032,22 @@
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
@@ -1036,11 +1057,7 @@
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="9">
@@ -1114,48 +1131,30 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783231365742" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.761671759261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
+      <sharedItems count="5">
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="3">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -1171,16 +1170,27 @@
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -1271,10 +1281,172 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781793518516" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755029513886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755030902779" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
     <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia]" caption="Dzien Tygodnia" numFmtId="0" hierarchy="4" level="1" mappingCount="1">
       <sharedItems count="5">
         <s v="[Data].[Dzien Tygodnia].&amp;[Poniedziałek]" c="Poniedziałek"/>
@@ -1295,7 +1467,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1332,6 +1504,7 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -1421,181 +1594,28 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781809722219" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="33" level="32767"/>
-    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="44">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781814814814" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755033912035" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
-      <sharedItems count="5">
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
-      </sharedItems>
-    </cacheField>
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
     <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
+    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="8">
+        <s v="[Pytanie].[Tresc].&amp;[Test question 1]" c="Test question 1"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 2]" c="Test question 2"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 3]" c="Test question 3"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 4]" c="Test question 4"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 5]" c="Test question 5"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 6]" c="Test question 6"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 8]" c="Test question 8"/>
+        <s v="[Pytanie].[Tresc].&amp;[Test question 9]" c="Test question 9"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1611,7 +1631,12 @@
     <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
@@ -1620,36 +1645,32 @@
     <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -1727,27 +1748,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.78181782407" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755034837966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="6">
+        <s v="[Egzaminator].[Pesel].&amp;[14033088603]" c="14033088603"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16012095392]" c="16012095392"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16041843005]" c="16041843005"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19021081589]" c="19021081589"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88080444314]" c="88080444314"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97030363487]" c="97030363487"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="8">
-        <s v="[Pytanie].[Tresc].&amp;[Test question 1]" c="Test question 1"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 2]" c="Test question 2"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 3]" c="Test question 3"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 4]" c="Test question 4"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 5]" c="Test question 5"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 6]" c="Test question 6"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 8]" c="Test question 8"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 9]" c="Test question 9"/>
+    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems count="6">
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1758,28 +1784,28 @@
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -1789,6 +1815,7 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -1879,172 +1906,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.781820949072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="6">
-        <s v="[Egzaminator].[Pesel].&amp;[14033088603]" c="14033088603"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16012095392]" c="16012095392"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16041843005]" c="16041843005"/>
-        <s v="[Egzaminator].[Pesel].&amp;[19021081589]" c="19021081589"/>
-        <s v="[Egzaminator].[Pesel].&amp;[88080444314]" c="88080444314"/>
-        <s v="[Egzaminator].[Pesel].&amp;[97030363487]" c="97030363487"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="6">
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="44">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.782086921296" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755035648152" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
     <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -2081,6 +1951,7 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -2170,11 +2041,11 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.782208101853" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755036574075" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="38" level="32767"/>
+    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
     <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
@@ -2182,7 +2053,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -2224,6 +2095,7 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -2313,11 +2185,11 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45616.783063773146" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755037731484" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
-    <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="42" level="32767"/>
+    <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
     <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="1">
         <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
@@ -2343,13 +2215,13 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="44">
+  <cacheHierarchies count="45">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
@@ -2385,6 +2257,7 @@
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
@@ -2474,607 +2347,170 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="4"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
-  </rowHierarchiesUsage>
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.757130439815" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
-</pivotTableDefinition>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
-    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="2" level="1">
-        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
-        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="3">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="4"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="2"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="5">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-        <item c="1" x="4"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="4"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="5"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3127,7 +2563,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="44">
+  <pivotHierarchies count="45">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3161,6 +2597,636 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="172" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
+    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="2" level="1">
+        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
+        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="3"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="157" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="2"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="3"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="178" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="3"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3194,26 +3260,46 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="1">
+        <item c="1" x="0" d="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
+      <items count="4">
         <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="2"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="6">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -3228,7 +3314,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="44">
+  <pivotHierarchies count="45">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3262,6 +3348,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3294,7 +3381,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="247" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3341,36 +3428,37 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3403,7 +3491,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="166" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3430,36 +3518,37 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3492,7 +3581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3568,36 +3657,37 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="44">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -3927,16 +4017,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11567-615D-40F7-9207-59265D9F3B66}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3951,16 +4044,54 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4">
-        <v>243.35829228243023</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>19.951184956208142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19.948842874543239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19.902459210215181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20.044817927170868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>21.720385957708888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>243.35829228243023</v>
+      <c r="B8" s="4">
+        <v>20.195296105524214</v>
       </c>
     </row>
   </sheetData>
@@ -4050,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4116,7 +4247,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4191,7 +4322,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4273,7 +4404,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4302,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>29.40909090909091</v>
+        <v>12.85430463576159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4310,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>27.988636363636363</v>
+        <v>12.783737024221454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4318,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>32.037878787878789</v>
+        <v>12.776435045317221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4326,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>31.102272727272727</v>
+        <v>12.809672386895476</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4334,7 +4465,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>18.450757575757574</v>
+        <v>8.6982142857142861</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4342,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>138.98863636363637</v>
+        <v>12.050246305418719</v>
       </c>
     </row>
   </sheetData>
@@ -4352,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CFB149-A7B9-4595-BF26-9A0857676217}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4385,15 +4516,45 @@
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4">
-        <v>1251</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B9" s="4">
         <v>1251</v>
       </c>
     </row>
@@ -4406,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE84421A-D5DE-40EA-A019-479180B1751A}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3647586-FB6C-4CDE-8130-9F4E1221DF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A740C760-D663-41D4-BFAF-8B82B7804329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="151" r:id="rId12"/>
-    <pivotCache cacheId="154" r:id="rId13"/>
-    <pivotCache cacheId="157" r:id="rId14"/>
-    <pivotCache cacheId="166" r:id="rId15"/>
-    <pivotCache cacheId="169" r:id="rId16"/>
-    <pivotCache cacheId="172" r:id="rId17"/>
-    <pivotCache cacheId="175" r:id="rId18"/>
-    <pivotCache cacheId="178" r:id="rId19"/>
-    <pivotCache cacheId="190" r:id="rId20"/>
-    <pivotCache cacheId="214" r:id="rId21"/>
-    <pivotCache cacheId="247" r:id="rId22"/>
+    <pivotCache cacheId="13" r:id="rId12"/>
+    <pivotCache cacheId="16" r:id="rId13"/>
+    <pivotCache cacheId="19" r:id="rId14"/>
+    <pivotCache cacheId="22" r:id="rId15"/>
+    <pivotCache cacheId="25" r:id="rId16"/>
+    <pivotCache cacheId="28" r:id="rId17"/>
+    <pivotCache cacheId="31" r:id="rId18"/>
+    <pivotCache cacheId="34" r:id="rId19"/>
+    <pivotCache cacheId="37" r:id="rId20"/>
+    <pivotCache cacheId="40" r:id="rId21"/>
+    <pivotCache cacheId="43" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -219,40 +219,211 @@
     <t>979</t>
   </si>
   <si>
-    <t>14033088603</t>
-  </si>
-  <si>
     <t>Julianna Pastuszko</t>
   </si>
   <si>
-    <t>16012095392</t>
-  </si>
-  <si>
     <t>Jędrzej Łyś</t>
   </si>
   <si>
-    <t>16041843005</t>
-  </si>
-  <si>
     <t>Julianna Smykla</t>
   </si>
   <si>
-    <t>19021081589</t>
-  </si>
-  <si>
     <t>Nicole Reiter</t>
   </si>
   <si>
-    <t>88080444314</t>
-  </si>
-  <si>
     <t>Fabian Namysł</t>
   </si>
   <si>
-    <t>97030363487</t>
-  </si>
-  <si>
     <t>Julianna Romaniak</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku kolizji drogowej?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy pojazd uprzywilejowany?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak STOP?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Stop'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?</t>
+  </si>
+  <si>
+    <t>Co oznacza zielone światło na sygnalizatorze?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Koniec autostrady'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Koniec ograniczenia prędkości'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Uwaga, dzieci'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Uwaga, zwierzęta'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz skrętu w lewo'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz skrętu w prawo'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu przyczep'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wyprzedzania'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz zatrzymywania się'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?</t>
+  </si>
+  <si>
+    <t>Czy można korzystać z telefonu podczas prowadzenia pojazdu?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać na przejściu dla pieszych?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać pojazd na przejściu dla pieszych?</t>
+  </si>
+  <si>
+    <t>Jakie jest dopuszczalne ciśnienie w oponach?</t>
+  </si>
+  <si>
+    <t>Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne odstępy między pojazdami w tunelu?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości na drodze ekspresowej?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości w strefie zamieszkania?</t>
+  </si>
+  <si>
+    <t>Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady parkowania na chodniku?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania w dzień?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania w nocy?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania?</t>
+  </si>
+  <si>
+    <t>Kiedy można używać klaksonu?</t>
+  </si>
+  <si>
+    <t>Kiedy należy używać pasów bezpieczeństwa?</t>
+  </si>
+  <si>
+    <t>Kiedy należy używać świateł przeciwmgielnych?</t>
+  </si>
+  <si>
+    <t>14040288601</t>
+  </si>
+  <si>
+    <t>16012395393</t>
+  </si>
+  <si>
+    <t>16042143005</t>
+  </si>
+  <si>
+    <t>19021381580</t>
+  </si>
+  <si>
+    <t>23250762146</t>
+  </si>
+  <si>
+    <t>Krystyna Szuta</t>
+  </si>
+  <si>
+    <t>46011838544</t>
+  </si>
+  <si>
+    <t>Blanka Kręcisz</t>
+  </si>
+  <si>
+    <t>49010714778</t>
+  </si>
+  <si>
+    <t>Miłosz Sommerfeld</t>
+  </si>
+  <si>
+    <t>57050594043</t>
+  </si>
+  <si>
+    <t>Julita Gryka</t>
+  </si>
+  <si>
+    <t>88080744315</t>
+  </si>
+  <si>
+    <t>97030663488</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga z pierwszeństwem'?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać na skrzyżowaniu?</t>
+  </si>
+  <si>
+    <t>Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne ciśnienie w oponach?</t>
+  </si>
+  <si>
+    <t>Jakie są objawy aquaplaningu?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych poza terenem zabudowanym?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych w terenie zabudowanym?</t>
   </si>
 </sst>
 </file>
@@ -805,7 +976,317 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755028587962" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800155902776" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800179166668" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="7">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800182060186" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
@@ -815,18 +1296,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="3">
+      <sharedItems count="6">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
         <n v="1"/>
+        <n v="2"/>
         <n v="3"/>
         <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -962,38 +1449,13 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.760673611112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800157291669" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
-    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-      </sharedItems>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="45">
@@ -1002,14 +1464,7 @@
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -1020,7 +1475,12 @@
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
@@ -1032,25 +1492,20 @@
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
@@ -1130,8 +1585,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.761671759261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800162268519" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
@@ -1280,33 +1735,41 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755029513886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800163657404" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
+    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
       <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
+      <sharedItems count="6">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Czerwiec]" c="Czerwiec"/>
       </sharedItems>
-      <mpMap v="3"/>
+      <mpMap v="5"/>
     </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
+        <n v="6"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1316,20 +1779,17 @@
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
         <fieldUsage x="-1"/>
         <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -1349,13 +1809,22 @@
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
@@ -1363,11 +1832,7 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
   </cacheHierarchies>
@@ -1442,8 +1907,698 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755030902779" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800164814813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="7">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800166435183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="7">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800170138886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="10">
+        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
+        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
+        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
+        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
+        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems count="10">
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Blanka Kręcisz]" c="Blanka Kręcisz"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julita Gryka]" c="Julita Gryka"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Krystyna Szuta]" c="Krystyna Szuta"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Miłosz Sommerfeld]" c="Miłosz Sommerfeld"/>
+        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800172685187" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="47">
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?]" c="Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku kolizji drogowej?]" c="Co należy zrobić w przypadku kolizji drogowej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy pojazd uprzywilejowany?]" c="Co należy zrobić, gdy widzimy pojazd uprzywilejowany?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?]" c="Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?]" c="Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak STOP?]" c="Co należy zrobić, gdy widzimy znak STOP?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Stop'?]" c="Co należy zrobić, gdy widzimy znak 'Stop'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?]" c="Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?]" c="Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza zielone światło na sygnalizatorze?]" c="Co oznacza zielone światło na sygnalizatorze?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?]" c="Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem'?]" c="Co oznacza znak 'Droga z pierwszeństwem'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec autostrady'?]" c="Co oznacza znak 'Koniec autostrady'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec ograniczenia prędkości'?]" c="Co oznacza znak 'Koniec ograniczenia prędkości'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, dzieci'?]" c="Co oznacza znak 'Uwaga, dzieci'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, zwierzęta'?]" c="Co oznacza znak 'Uwaga, zwierzęta'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w lewo'?]" c="Co oznacza znak 'Zakaz skrętu w lewo'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w prawo'?]" c="Co oznacza znak 'Zakaz skrętu w prawo'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu przyczep'?]" c="Co oznacza znak 'Zakaz wjazdu przyczep'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania'?]" c="Co oznacza znak 'Zakaz wyprzedzania'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz zatrzymywania się'?]" c="Co oznacza znak 'Zakaz zatrzymywania się'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?]" c="Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można korzystać z telefonu podczas prowadzenia pojazdu?]" c="Czy można korzystać z telefonu podczas prowadzenia pojazdu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na przejściu dla pieszych?]" c="Czy można wyprzedzać na przejściu dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na skrzyżowaniu?]" c="Czy można wyprzedzać na skrzyżowaniu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać pojazd na przejściu dla pieszych?]" c="Czy można wyprzedzać pojazd na przejściu dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne ciśnienie w oponach?]" c="Jakie jest dopuszczalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?]" c="Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?]" c="Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ciśnienie w oponach?]" c="Jakie jest minimalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne odstępy między pojazdami w tunelu?]" c="Jakie jest minimalne odstępy między pojazdami w tunelu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze ekspresowej?]" c="Jakie jest ograniczenie prędkości na drodze ekspresowej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w strefie zamieszkania?]" c="Jakie jest ograniczenie prędkości w strefie zamieszkania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?]" c="Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są objawy aquaplaningu?]" c="Jakie są objawy aquaplaningu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady parkowania na chodniku?]" c="Jakie są zasady parkowania na chodniku?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych poza terenem zabudowanym?]" c="Jakie są zasady używania świateł drogowych poza terenem zabudowanym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych w terenie zabudowanym?]" c="Jakie są zasady używania świateł drogowych w terenie zabudowanym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych?]" c="Jakie są zasady używania świateł drogowych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w dzień?]" c="Jakie są zasady używania świateł mijania w dzień?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w nocy?]" c="Jakie są zasady używania świateł mijania w nocy?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania?]" c="Jakie są zasady używania świateł mijania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy można używać klaksonu?]" c="Kiedy można używać klaksonu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać pasów bezpieczeństwa?]" c="Kiedy należy używać pasów bezpieczeństwa?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać świateł przeciwmgielnych?]" c="Kiedy należy używać świateł przeciwmgielnych?"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800176041666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
@@ -1594,924 +2749,9 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755033912035" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="8">
-        <s v="[Pytanie].[Tresc].&amp;[Test question 1]" c="Test question 1"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 2]" c="Test question 2"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 3]" c="Test question 3"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 4]" c="Test question 4"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 5]" c="Test question 5"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 6]" c="Test question 6"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 8]" c="Test question 8"/>
-        <s v="[Pytanie].[Tresc].&amp;[Test question 9]" c="Test question 9"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755034837966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="6">
-        <s v="[Egzaminator].[Pesel].&amp;[14033088603]" c="14033088603"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16012095392]" c="16012095392"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16041843005]" c="16041843005"/>
-        <s v="[Egzaminator].[Pesel].&amp;[19021081589]" c="19021081589"/>
-        <s v="[Egzaminator].[Pesel].&amp;[88080444314]" c="88080444314"/>
-        <s v="[Egzaminator].[Pesel].&amp;[97030363487]" c="97030363487"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="6">
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755035648152" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
-    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755036574075" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.755037731484" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.757130439815" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2520,12 +2760,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -2534,7 +2776,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -2552,6 +2794,12 @@
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2631,7 +2879,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="172" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2709,7 +2957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2794,8 +3042,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="151" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2804,10 +3052,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -2816,7 +3067,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -2828,6 +3079,15 @@
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2907,7 +3167,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="157" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3018,8 +3278,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3028,12 +3288,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3042,7 +3304,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -3060,6 +3322,12 @@
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -3139,8 +3407,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="178" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3149,12 +3417,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3163,7 +3433,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -3181,6 +3451,12 @@
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -3260,8 +3536,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -3271,11 +3547,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="4">
+      <items count="6">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
         <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -3285,7 +3563,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3300,6 +3578,12 @@
     </i>
     <i r="1">
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3381,7 +3665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="247" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3491,13 +3775,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="166" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="8">
+      <items count="47">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3506,12 +3790,200 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
+  <rowItems count="48">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
   <pageFields count="1">
     <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]" cap="Treść Pytań"/>
   </pageFields>
@@ -3581,28 +4053,36 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3610,42 +4090,66 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="21">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -4017,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11567-615D-40F7-9207-59265D9F3B66}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,15 +4587,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>21.720385957708888</v>
+        <v>19.93687707641196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20.04599723513887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4">
+        <v>21.696121551379449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
-        <v>20.195296105524214</v>
+      <c r="B10" s="4">
+        <v>20.135761400574069</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +4647,9 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4139,7 +4661,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4170,7 +4692,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4179,10 +4703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4210,12 +4734,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>11</v>
@@ -4223,18 +4747,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>39</v>
+      <c r="B9" s="4">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4817,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>12.108910891089108</v>
+        <v>12.008036739380023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4277,7 +4825,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>12.054726368159203</v>
+        <v>12.297772567409144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4285,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>12.041050903119869</v>
+        <v>12.220673635307781</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4293,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>12.074380165289256</v>
+        <v>12.300822561692128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,7 +4849,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="4">
-        <v>11.97427652733119</v>
+        <v>12.347222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4309,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>12.050246305418719</v>
+        <v>12.234186046511628</v>
       </c>
     </row>
   </sheetData>
@@ -4319,10 +4867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1B5BA-D48C-4270-B24E-1BE835D32419}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4387,11 +4935,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
-        <v>26155</v>
+      <c r="B10" s="4">
+        <v>53045</v>
       </c>
     </row>
   </sheetData>
@@ -4401,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782E0A8-403D-4906-8BBE-03AEF1F8CFF6}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4465,15 +5029,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>8.6982142857142861</v>
+        <v>12.850574712643677</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12.452269170579029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.821869488536155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
-        <v>12.050246305418719</v>
+      <c r="B10" s="4">
+        <v>12.234186046511628</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +5063,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CFB149-A7B9-4595-BF26-9A0857676217}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -4547,15 +5127,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>1251</v>
+      <c r="B11" s="4">
+        <v>1865</v>
       </c>
     </row>
   </sheetData>
@@ -4567,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE84421A-D5DE-40EA-A019-479180B1751A}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,7 +5194,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4606,7 +5202,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4614,7 +5210,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4622,7 +5218,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4630,7 +5226,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4638,7 +5234,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4648,15 +5244,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396E4A6-D249-4F8F-BBB0-833858200275}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4674,6 +5270,390 @@
       </c>
       <c r="B4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +5663,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68659609-96BE-43A8-866E-45E48E4CABC3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4691,7 +5671,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4705,94 +5685,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4">
-        <v>240</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4">
-        <v>330</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B13" s="4">
-        <v>210</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
-        <v>1170</v>
+      <c r="B22" s="4">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A740C760-D663-41D4-BFAF-8B82B7804329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF26F50-B5DF-4132-9ABC-055BEEC03703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId12"/>
-    <pivotCache cacheId="16" r:id="rId13"/>
-    <pivotCache cacheId="19" r:id="rId14"/>
-    <pivotCache cacheId="22" r:id="rId15"/>
-    <pivotCache cacheId="25" r:id="rId16"/>
-    <pivotCache cacheId="28" r:id="rId17"/>
-    <pivotCache cacheId="31" r:id="rId18"/>
-    <pivotCache cacheId="34" r:id="rId19"/>
-    <pivotCache cacheId="37" r:id="rId20"/>
-    <pivotCache cacheId="40" r:id="rId21"/>
-    <pivotCache cacheId="43" r:id="rId22"/>
+    <pivotCache cacheId="79" r:id="rId12"/>
+    <pivotCache cacheId="82" r:id="rId13"/>
+    <pivotCache cacheId="85" r:id="rId14"/>
+    <pivotCache cacheId="88" r:id="rId15"/>
+    <pivotCache cacheId="91" r:id="rId16"/>
+    <pivotCache cacheId="94" r:id="rId17"/>
+    <pivotCache cacheId="100" r:id="rId18"/>
+    <pivotCache cacheId="103" r:id="rId19"/>
+    <pivotCache cacheId="106" r:id="rId20"/>
+    <pivotCache cacheId="109" r:id="rId21"/>
+    <pivotCache cacheId="112" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -219,211 +219,211 @@
     <t>979</t>
   </si>
   <si>
-    <t>Julianna Pastuszko</t>
-  </si>
-  <si>
-    <t>Jędrzej Łyś</t>
-  </si>
-  <si>
-    <t>Julianna Smykla</t>
-  </si>
-  <si>
-    <t>Nicole Reiter</t>
-  </si>
-  <si>
-    <t>Fabian Namysł</t>
-  </si>
-  <si>
-    <t>Julianna Romaniak</t>
-  </si>
-  <si>
-    <t>Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić w przypadku kolizji drogowej?</t>
+    <t>Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?</t>
+  </si>
+  <si>
+    <t>Co oznacza zielone światło na sygnalizatorze?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Koniec autostrady'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Koniec ograniczenia prędkości'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Uwaga, dzieci'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz skrętu w lewo'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu przyczep'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wyprzedzania'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz zatrzymywania się'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać pojazd na przejściu dla pieszych?</t>
+  </si>
+  <si>
+    <t>Jakie jest dopuszczalne ciśnienie w oponach?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości w strefie zamieszkania?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady parkowania na chodniku?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych?</t>
+  </si>
+  <si>
+    <t>Kiedy można używać klaksonu?</t>
+  </si>
+  <si>
+    <t>Kiedy należy używać pasów bezpieczeństwa?</t>
+  </si>
+  <si>
+    <t>Kiedy należy używać świateł przeciwmgielnych?</t>
+  </si>
+  <si>
+    <t>14040288601</t>
+  </si>
+  <si>
+    <t>16012395393</t>
+  </si>
+  <si>
+    <t>16042143005</t>
+  </si>
+  <si>
+    <t>19021381580</t>
+  </si>
+  <si>
+    <t>23250762146</t>
+  </si>
+  <si>
+    <t>46011838544</t>
+  </si>
+  <si>
+    <t>49010714778</t>
+  </si>
+  <si>
+    <t>57050594043</t>
+  </si>
+  <si>
+    <t>88080744315</t>
+  </si>
+  <si>
+    <t>97030663488</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga z pierwszeństwem'?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać na skrzyżowaniu?</t>
+  </si>
+  <si>
+    <t>Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne ciśnienie w oponach?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych poza terenem zabudowanym?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku awarii na autostradzie?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga dla pieszych'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga dla rowerów'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak ograniczenie prędkości?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Przejazd kolejowy z zaporami'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu motocykli'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu rowerów'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak zakaz wjazdu?</t>
+  </si>
+  <si>
+    <t>Czy można parkować na chodniku?</t>
+  </si>
+  <si>
+    <t>Czy można prowadzić pojazd bez ubezpieczenia?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?</t>
   </si>
   <si>
     <t>Co należy zrobić, gdy widzimy pojazd uprzywilejowany?</t>
   </si>
   <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Stop'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Obowiązkowy kierunek jazdy'?</t>
+  </si>
+  <si>
+    <t>Czy można korzystać z telefonu podczas prowadzenia pojazdu?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości na autostradzie?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości w terenie zabudowanym?</t>
+  </si>
+  <si>
+    <t>Jakie jest pierwszeństwo na rondzie?</t>
+  </si>
+  <si>
+    <t>Jakie są objawy aquaplaningu?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania w nocy?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł przeciwmgielnych?</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
     <t>Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?</t>
   </si>
   <si>
-    <t>Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy widzimy znak STOP?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy widzimy znak 'Stop'?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?</t>
-  </si>
-  <si>
-    <t>Co oznacza zielone światło na sygnalizatorze?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Koniec autostrady'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Koniec ograniczenia prędkości'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Uwaga, dzieci'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Uwaga, zwierzęta'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz skrętu w lewo'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz skrętu w prawo'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz wjazdu przyczep'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz wyprzedzania'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Zakaz zatrzymywania się'?</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?</t>
-  </si>
-  <si>
-    <t>Czy można korzystać z telefonu podczas prowadzenia pojazdu?</t>
+    <t>Co oznacza czerwone światło na sygnalizatorze?</t>
   </si>
   <si>
     <t>Czy można wyprzedzać na przejściu dla pieszych?</t>
   </si>
   <si>
-    <t>Czy można wyprzedzać pojazd na przejściu dla pieszych?</t>
-  </si>
-  <si>
-    <t>Jakie jest dopuszczalne ciśnienie w oponach?</t>
-  </si>
-  <si>
-    <t>Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?</t>
-  </si>
-  <si>
-    <t>Jakie jest minimalne odstępy między pojazdami w tunelu?</t>
-  </si>
-  <si>
     <t>Jakie jest ograniczenie prędkości na drodze ekspresowej?</t>
   </si>
   <si>
-    <t>Jakie jest ograniczenie prędkości w strefie zamieszkania?</t>
-  </si>
-  <si>
-    <t>Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady parkowania na chodniku?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł drogowych?</t>
+    <t>Jakie jest ograniczenie prędkości na drodze krajowej?</t>
   </si>
   <si>
     <t>Jakie są zasady używania świateł mijania w dzień?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł mijania w nocy?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł mijania?</t>
-  </si>
-  <si>
-    <t>Kiedy można używać klaksonu?</t>
-  </si>
-  <si>
-    <t>Kiedy należy używać pasów bezpieczeństwa?</t>
-  </si>
-  <si>
-    <t>Kiedy należy używać świateł przeciwmgielnych?</t>
-  </si>
-  <si>
-    <t>14040288601</t>
-  </si>
-  <si>
-    <t>16012395393</t>
-  </si>
-  <si>
-    <t>16042143005</t>
-  </si>
-  <si>
-    <t>19021381580</t>
-  </si>
-  <si>
-    <t>23250762146</t>
-  </si>
-  <si>
-    <t>Krystyna Szuta</t>
-  </si>
-  <si>
-    <t>46011838544</t>
-  </si>
-  <si>
-    <t>Blanka Kręcisz</t>
-  </si>
-  <si>
-    <t>49010714778</t>
-  </si>
-  <si>
-    <t>Miłosz Sommerfeld</t>
-  </si>
-  <si>
-    <t>57050594043</t>
-  </si>
-  <si>
-    <t>Julita Gryka</t>
-  </si>
-  <si>
-    <t>88080744315</t>
-  </si>
-  <si>
-    <t>97030663488</t>
-  </si>
-  <si>
-    <t>Czerwiec</t>
-  </si>
-  <si>
-    <t>Lipiec</t>
-  </si>
-  <si>
-    <t>Co oznacza znak 'Droga z pierwszeństwem'?</t>
-  </si>
-  <si>
-    <t>Czy można wyprzedzać na skrzyżowaniu?</t>
-  </si>
-  <si>
-    <t>Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?</t>
-  </si>
-  <si>
-    <t>Jakie jest minimalne ciśnienie w oponach?</t>
-  </si>
-  <si>
-    <t>Jakie są objawy aquaplaningu?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł drogowych poza terenem zabudowanym?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł drogowych w terenie zabudowanym?</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,486 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800155902776" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912822685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
+    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="5"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912828009263" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912944560187" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="10">
+        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
+        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
+        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
+        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
+        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912822916667" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
@@ -1119,338 +1598,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800179166668" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="7">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800182060186" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800157291669" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912823379629" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
@@ -1585,8 +1734,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800162268519" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912823842591" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
@@ -1735,180 +1884,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800163657404" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
-    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="6">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Czerwiec]" c="Czerwiec"/>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800164814813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912824421299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
@@ -1918,26 +1895,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="7">
+      <sharedItems count="6">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
         <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
         <n v="6"/>
-        <n v="7"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2074,7 +2049,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800166435183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912824999999" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
@@ -2084,26 +2059,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="7">
+      <sharedItems count="6">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
         <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
         <n v="6"/>
-        <n v="7"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2240,173 +2213,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800170138886" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="10">
-        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
-        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
-        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
-        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
-        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
-        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
-        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
-        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Egzaminator].[Imie I Nazwisko].[Imie I Nazwisko]" caption="Imie I Nazwisko" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="10">
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Blanka Kręcisz]" c="Blanka Kręcisz"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Fabian Namysł]" c="Fabian Namysł"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Jędrzej Łyś]" c="Jędrzej Łyś"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Pastuszko]" c="Julianna Pastuszko"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Romaniak]" c="Julianna Romaniak"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julianna Smykla]" c="Julianna Smykla"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Julita Gryka]" c="Julita Gryka"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Krystyna Szuta]" c="Krystyna Szuta"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Miłosz Sommerfeld]" c="Miłosz Sommerfeld"/>
-        <s v="[Egzaminator].[Imie I Nazwisko].&amp;[Nicole Reiter]" c="Nicole Reiter"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="45">
-    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="9">
-    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
-    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
-    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
-    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
-    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
-    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
-    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
-  </dimensions>
-  <measureGroups count="7">
-    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
-    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
-    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
-    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
-    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
-    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
-    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
-  </measureGroups>
-  <maps count="40">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="3"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="3"/>
-    <map measureGroup="3" dimension="7"/>
-    <map measureGroup="4" dimension="0"/>
-    <map measureGroup="4" dimension="1"/>
-    <map measureGroup="4" dimension="2"/>
-    <map measureGroup="4" dimension="3"/>
-    <map measureGroup="4" dimension="7"/>
-    <map measureGroup="5" dimension="0"/>
-    <map measureGroup="5" dimension="1"/>
-    <map measureGroup="5" dimension="2"/>
-    <map measureGroup="5" dimension="3"/>
-    <map measureGroup="5" dimension="6"/>
-    <map measureGroup="5" dimension="7"/>
-    <map measureGroup="6" dimension="0"/>
-    <map measureGroup="6" dimension="1"/>
-    <map measureGroup="6" dimension="2"/>
-    <map measureGroup="6" dimension="3"/>
-    <map measureGroup="6" dimension="6"/>
-    <map measureGroup="6" dimension="7"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800172685187" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912826273146" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
@@ -2414,51 +2221,62 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="47">
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?]" c="Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku kolizji drogowej?]" c="Co należy zrobić w przypadku kolizji drogowej?"/>
+      <sharedItems count="58">
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii na autostradzie?]" c="Co należy zrobić w przypadku awarii na autostradzie?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy pojazd uprzywilejowany?]" c="Co należy zrobić, gdy widzimy pojazd uprzywilejowany?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?]" c="Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?]" c="Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak STOP?]" c="Co należy zrobić, gdy widzimy znak STOP?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Stop'?]" c="Co należy zrobić, gdy widzimy znak 'Stop'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?]" c="Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?]" c="Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza czerwone światło na sygnalizatorze?]" c="Co oznacza czerwone światło na sygnalizatorze?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza zielone światło na sygnalizatorze?]" c="Co oznacza zielone światło na sygnalizatorze?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?]" c="Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla pieszych'?]" c="Co oznacza znak 'Droga dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla rowerów'?]" c="Co oznacza znak 'Droga dla rowerów'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem'?]" c="Co oznacza znak 'Droga z pierwszeństwem'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec autostrady'?]" c="Co oznacza znak 'Koniec autostrady'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec ograniczenia prędkości'?]" c="Co oznacza znak 'Koniec ograniczenia prędkości'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Obowiązkowy kierunek jazdy'?]" c="Co oznacza znak 'Obowiązkowy kierunek jazdy'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak ograniczenie prędkości?]" c="Co oznacza znak ograniczenie prędkości?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Przejazd kolejowy z zaporami'?]" c="Co oznacza znak 'Przejazd kolejowy z zaporami'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, dzieci'?]" c="Co oznacza znak 'Uwaga, dzieci'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, zwierzęta'?]" c="Co oznacza znak 'Uwaga, zwierzęta'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w lewo'?]" c="Co oznacza znak 'Zakaz skrętu w lewo'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w prawo'?]" c="Co oznacza znak 'Zakaz skrętu w prawo'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu motocykli'?]" c="Co oznacza znak 'Zakaz wjazdu motocykli'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu przyczep'?]" c="Co oznacza znak 'Zakaz wjazdu przyczep'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu rowerów'?]" c="Co oznacza znak 'Zakaz wjazdu rowerów'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak zakaz wjazdu?]" c="Co oznacza znak zakaz wjazdu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania'?]" c="Co oznacza znak 'Zakaz wyprzedzania'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz zatrzymywania się'?]" c="Co oznacza znak 'Zakaz zatrzymywania się'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?]" c="Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można korzystać z telefonu podczas prowadzenia pojazdu?]" c="Czy można korzystać z telefonu podczas prowadzenia pojazdu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można parkować na chodniku?]" c="Czy można parkować na chodniku?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można prowadzić pojazd bez ubezpieczenia?]" c="Czy można prowadzić pojazd bez ubezpieczenia?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na przejściu dla pieszych?]" c="Czy można wyprzedzać na przejściu dla pieszych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na skrzyżowaniu?]" c="Czy można wyprzedzać na skrzyżowaniu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać pojazd na przejściu dla pieszych?]" c="Czy można wyprzedzać pojazd na przejściu dla pieszych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne ciśnienie w oponach?]" c="Jakie jest dopuszczalne ciśnienie w oponach?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?]" c="Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?]" c="Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ciśnienie w oponach?]" c="Jakie jest minimalne ciśnienie w oponach?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne odstępy między pojazdami w tunelu?]" c="Jakie jest minimalne odstępy między pojazdami w tunelu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?]" c="Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na autostradzie?]" c="Jakie jest ograniczenie prędkości na autostradzie?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze ekspresowej?]" c="Jakie jest ograniczenie prędkości na drodze ekspresowej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze krajowej?]" c="Jakie jest ograniczenie prędkości na drodze krajowej?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w strefie zamieszkania?]" c="Jakie jest ograniczenie prędkości w strefie zamieszkania?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?]" c="Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w terenie zabudowanym?]" c="Jakie jest ograniczenie prędkości w terenie zabudowanym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na rondzie?]" c="Jakie jest pierwszeństwo na rondzie?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są objawy aquaplaningu?]" c="Jakie są objawy aquaplaningu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady parkowania na chodniku?]" c="Jakie są zasady parkowania na chodniku?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych poza terenem zabudowanym?]" c="Jakie są zasady używania świateł drogowych poza terenem zabudowanym?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych w terenie zabudowanym?]" c="Jakie są zasady używania świateł drogowych w terenie zabudowanym?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych?]" c="Jakie są zasady używania świateł drogowych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w dzień?]" c="Jakie są zasady używania świateł mijania w dzień?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w nocy?]" c="Jakie są zasady używania świateł mijania w nocy?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania?]" c="Jakie są zasady używania świateł mijania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł przeciwmgielnych?]" c="Jakie są zasady używania świateł przeciwmgielnych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Kiedy można używać klaksonu?]" c="Kiedy można używać klaksonu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać pasów bezpieczeństwa?]" c="Kiedy należy używać pasów bezpieczeństwa?"/>
         <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać świateł przeciwmgielnych?]" c="Kiedy należy używać świateł przeciwmgielnych?"/>
@@ -2597,8 +2415,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.800176041666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912826967593" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
@@ -2749,300 +2567,172 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="3"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="8"/>
-    <rowHierarchyUsage hierarchyUsage="7"/>
-  </rowHierarchiesUsage>
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912827546294" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="6">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="45">
+    <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="9">
+    <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension name="Egzaminator" uniqueName="[Egzaminator]" caption="Egzaminator"/>
+    <dimension name="Kandydat" uniqueName="[Kandydat]" caption="Kandydat"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Pytanie" uniqueName="[Pytanie]" caption="Pytanie"/>
+    <dimension name="Skarga" uniqueName="[Skarga]" caption="Skarga"/>
+    <dimension name="Termin Egzaminu" uniqueName="[Termin Egzaminu]" caption="Termin Egzaminu"/>
+    <dimension name="Zajetosc Terminu Egzaminu" uniqueName="[Zajetosc Terminu Egzaminu]" caption="Zajetosc Terminu Egzaminu"/>
+  </dimensions>
+  <measureGroups count="7">
+    <measureGroup name="Odbycie Sie Egzaminu" caption="Odbycie Sie Egzaminu"/>
+    <measureGroup name="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" caption="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga"/>
+    <measureGroup name="Zarezerwowanie Terminu" caption="Zarezerwowanie Terminu"/>
+    <measureGroup name="Zarezerwowanie Terminu 1" caption="Zarezerwowanie Terminu 1"/>
+    <measureGroup name="Zarezerwowanie Terminu 2" caption="Zarezerwowanie Terminu 2"/>
+    <measureGroup name="Zlozenie Skargi" caption="Zlozenie Skargi"/>
+    <measureGroup name="Zlozenie Skargi 1" caption="Zlozenie Skargi 1"/>
+  </measureGroups>
+  <maps count="40">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="3"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="2" dimension="7"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="4" dimension="0"/>
+    <map measureGroup="4" dimension="1"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="3"/>
+    <map measureGroup="4" dimension="7"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="3"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="6"/>
+    <map measureGroup="6" dimension="7"/>
+  </maps>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
   </extLst>
-</pivotTableDefinition>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
-    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1">
-      <members count="2" level="1">
-        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
-        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
-      </members>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3166,8 +2856,292 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="16" name="[Skarga].[Czy Istnieja Powiazane Incydenty].&amp;[Brak powiązanych incydentów]" cap="Brak powiązanych incydentów"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="21" name="[Skarga].[Typ Skargi].&amp;[Inne]" cap="Inne"/>
+    <pageField fld="2" hier="17" name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].&amp;[Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania]" cap="Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="2" level="1">
+        <member name="[Skarga].[Typ Skargi].&amp;[Inne]"/>
+        <member name="[Skarga].[Typ Skargi].&amp;[Treść Pytań]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="45">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="3"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3278,8 +3252,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3288,14 +3262,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3304,7 +3277,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3325,9 +3298,6 @@
     </i>
     <i r="1">
       <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -3407,8 +3377,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3417,14 +3387,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="7">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3433,7 +3402,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3454,9 +3423,6 @@
     </i>
     <i r="1">
       <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -3536,8 +3502,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
@@ -3547,13 +3513,12 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="6">
+      <items count="5">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
         <item c="1" x="3"/>
         <item c="1" x="4"/>
-        <item c="1" x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -3563,7 +3528,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -3581,9 +3546,6 @@
     </i>
     <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3665,7 +3627,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3775,13 +3737,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="47">
+      <items count="58">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3829,13 +3791,24 @@
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="48">
+  <rowItems count="59">
     <i>
       <x/>
     </i>
@@ -3976,6 +3949,39 @@
     </i>
     <i>
       <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -4053,9 +4059,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="10">
@@ -4071,85 +4077,40 @@
         <item x="9"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
-    <i r="1">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -4209,9 +4170,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
+  <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="11"/>
-    <rowHierarchyUsage hierarchyUsage="10"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4521,9 +4481,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11567-615D-40F7-9207-59265D9F3B66}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4555,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>19.951184956208142</v>
+        <v>19.867238243699664</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4563,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>19.948842874543239</v>
+        <v>19.968560248279584</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>19.902459210215181</v>
+        <v>19.974722419088117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>20.044817927170868</v>
+        <v>19.974800245851259</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4587,31 +4547,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>19.93687707641196</v>
+        <v>19.846046275108058</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4">
-        <v>20.04599723513887</v>
+        <v>21.618733772718194</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>97</v>
+      <c r="A9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>21.696121551379449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20.135761400574069</v>
+        <v>20.117084987551308</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +4600,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4645,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4703,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4734,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4742,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4750,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4758,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4766,23 +4718,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>96</v>
+      <c r="A8" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4761,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>12.008036739380023</v>
+        <v>12.354080221300139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4825,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>12.297772567409144</v>
+        <v>12.12912087912088</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>12.220673635307781</v>
+        <v>12.394444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4841,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>12.300822561692128</v>
+        <v>12.379694019471488</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4849,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="4">
-        <v>12.347222222222221</v>
+        <v>12.107671601615074</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4857,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>12.234186046511628</v>
+        <v>12.271676300578035</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +4811,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1B5BA-D48C-4270-B24E-1BE835D32419}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -4899,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4915,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>1800</v>
+        <v>24905</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,31 +4875,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>24355</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4">
-        <v>1880</v>
+        <v>25035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>97</v>
+      <c r="A9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>25010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>53045</v>
+        <v>53875</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +4901,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782E0A8-403D-4906-8BBE-03AEF1F8CFF6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -4997,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>12.85430463576159</v>
+        <v>12.766169154228855</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5005,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>12.783737024221454</v>
+        <v>12.777586206896551</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>12.776435045317221</v>
+        <v>12.846737481031866</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5021,7 +4957,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>12.809672386895476</v>
+        <v>12.671339563862928</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5029,31 +4965,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>12.850574712643677</v>
+        <v>13.066445182724253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4">
-        <v>12.452269170579029</v>
+        <v>9.1535648994515544</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>97</v>
+      <c r="A9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>8.821869488536155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>12.234186046511628</v>
+        <v>12.271676300578035</v>
       </c>
     </row>
   </sheetData>
@@ -5063,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CFB149-A7B9-4595-BF26-9A0857676217}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5103,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5111,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5119,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>278</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5127,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>361</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5135,23 +5063,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>333</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>96</v>
+      <c r="A10" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1865</v>
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +5114,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5130,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5146,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5244,9 +5164,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396E4A6-D249-4F8F-BBB0-833858200275}">
-  <dimension ref="A2:B52"/>
+  <dimension ref="A2:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -5274,7 +5194,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5282,7 +5202,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -5290,55 +5210,55 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -5346,63 +5266,63 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B14" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -5410,23 +5330,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
@@ -5434,55 +5354,55 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
@@ -5490,55 +5410,55 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -5546,23 +5466,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -5570,15 +5490,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5586,15 +5506,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5602,31 +5522,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B48" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
@@ -5634,7 +5554,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -5642,18 +5562,106 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B51" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="4">
-        <v>110</v>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5663,15 +5671,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68659609-96BE-43A8-866E-45E48E4CABC3}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5685,150 +5693,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
+      <c r="A3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
+      <c r="A5" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="4">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
+      <c r="A7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="4">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B8" s="4">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
+      <c r="A9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B10" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>87</v>
+      <c r="A11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="4">
-        <v>530</v>
+      <c r="B12" s="4">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF26F50-B5DF-4132-9ABC-055BEEC03703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8811E58A-A827-4EAC-82B4-3FABAA93CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="79" r:id="rId12"/>
-    <pivotCache cacheId="82" r:id="rId13"/>
-    <pivotCache cacheId="85" r:id="rId14"/>
-    <pivotCache cacheId="88" r:id="rId15"/>
-    <pivotCache cacheId="91" r:id="rId16"/>
-    <pivotCache cacheId="94" r:id="rId17"/>
-    <pivotCache cacheId="100" r:id="rId18"/>
-    <pivotCache cacheId="103" r:id="rId19"/>
-    <pivotCache cacheId="106" r:id="rId20"/>
-    <pivotCache cacheId="109" r:id="rId21"/>
-    <pivotCache cacheId="112" r:id="rId22"/>
+    <pivotCache cacheId="244" r:id="rId12"/>
+    <pivotCache cacheId="247" r:id="rId13"/>
+    <pivotCache cacheId="250" r:id="rId14"/>
+    <pivotCache cacheId="253" r:id="rId15"/>
+    <pivotCache cacheId="256" r:id="rId16"/>
+    <pivotCache cacheId="259" r:id="rId17"/>
+    <pivotCache cacheId="262" r:id="rId18"/>
+    <pivotCache cacheId="265" r:id="rId19"/>
+    <pivotCache cacheId="268" r:id="rId20"/>
+    <pivotCache cacheId="271" r:id="rId21"/>
+    <pivotCache cacheId="274" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Co oznacza znak 'Koniec autostrady'?</t>
   </si>
   <si>
-    <t>Co oznacza znak 'Koniec ograniczenia prędkości'?</t>
-  </si>
-  <si>
     <t>Co oznacza znak 'Uwaga, dzieci'?</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?</t>
   </si>
   <si>
-    <t>Czy można wyprzedzać pojazd na przejściu dla pieszych?</t>
-  </si>
-  <si>
     <t>Jakie jest dopuszczalne ciśnienie w oponach?</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Kiedy można używać klaksonu?</t>
   </si>
   <si>
-    <t>Kiedy należy używać pasów bezpieczeństwa?</t>
-  </si>
-  <si>
     <t>Kiedy należy używać świateł przeciwmgielnych?</t>
   </si>
   <si>
@@ -309,36 +300,18 @@
     <t>97030663488</t>
   </si>
   <si>
-    <t>Co oznacza znak 'Droga z pierwszeństwem'?</t>
-  </si>
-  <si>
-    <t>Czy można wyprzedzać na skrzyżowaniu?</t>
-  </si>
-  <si>
-    <t>Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?</t>
-  </si>
-  <si>
     <t>Jakie jest minimalne ciśnienie w oponach?</t>
   </si>
   <si>
     <t>Jakie są zasady używania świateł drogowych poza terenem zabudowanym?</t>
   </si>
   <si>
-    <t>Co należy zrobić w przypadku awarii na autostradzie?</t>
-  </si>
-  <si>
-    <t>Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?</t>
-  </si>
-  <si>
     <t>Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?</t>
   </si>
   <si>
     <t>Co oznacza znak 'Droga dla pieszych'?</t>
   </si>
   <si>
-    <t>Co oznacza znak 'Droga dla rowerów'?</t>
-  </si>
-  <si>
     <t>Co oznacza znak ograniczenie prędkości?</t>
   </si>
   <si>
@@ -348,9 +321,6 @@
     <t>Co oznacza znak 'Zakaz wjazdu motocykli'?</t>
   </si>
   <si>
-    <t>Co oznacza znak 'Zakaz wjazdu rowerów'?</t>
-  </si>
-  <si>
     <t>Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?</t>
   </si>
   <si>
@@ -363,9 +333,6 @@
     <t>Czy można prowadzić pojazd bez ubezpieczenia?</t>
   </si>
   <si>
-    <t>Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?</t>
-  </si>
-  <si>
     <t>Co należy zrobić, gdy widzimy pojazd uprzywilejowany?</t>
   </si>
   <si>
@@ -384,12 +351,6 @@
     <t>Czy można korzystać z telefonu podczas prowadzenia pojazdu?</t>
   </si>
   <si>
-    <t>Jakie jest ograniczenie prędkości na autostradzie?</t>
-  </si>
-  <si>
-    <t>Jakie jest ograniczenie prędkości w terenie zabudowanym?</t>
-  </si>
-  <si>
     <t>Jakie jest pierwszeństwo na rondzie?</t>
   </si>
   <si>
@@ -397,9 +358,6 @@
   </si>
   <si>
     <t>Jakie są zasady używania świateł mijania w nocy?</t>
-  </si>
-  <si>
-    <t>Jakie są zasady używania świateł mijania?</t>
   </si>
   <si>
     <t>Jakie są zasady używania świateł przeciwmgielnych?</t>
@@ -976,61 +934,43 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912822685183" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828921759261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
-    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
-    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="10">
+        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
+        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
+        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
+        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
+        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
@@ -1047,34 +987,40 @@
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1146,36 +1092,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912828009263" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828954745368" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-      </sharedItems>
+    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1183,18 +1111,8 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -1203,11 +1121,21 @@
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -1223,20 +1151,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1308,43 +1247,61 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912944560187" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.82895787037" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="10">
-        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
-        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
-        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
-        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
-        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
-        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
-        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
-        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
+  <cacheFields count="6">
+    <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
+    <cacheField name="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" numFmtId="0" hierarchy="28" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
+      <sharedItems count="5">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="5"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
@@ -1361,29 +1318,45 @@
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączny czas oczekiwania na egzamin]" caption="Łączny czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji]" caption="Liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych dni wśród terminów rezerwacji]" caption="Liczba różnych dni wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba różnych kandydatów wśród terminów rezerwacji]" caption="Liczba różnych kandydatów wśród terminów rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1455,18 +1428,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912822916667" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828926736111" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" numFmtId="0" hierarchy="17" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5" count="3">
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1474,8 +1461,18 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -1484,21 +1481,11 @@
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -1514,20 +1501,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1599,15 +1597,38 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912823379629" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828930439813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
-    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="6">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1615,8 +1636,18 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -1624,12 +1655,7 @@
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
@@ -1650,20 +1676,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1735,29 +1772,41 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912823842591" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828934259262" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
-    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
+    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
+    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia]" caption="Dzien Tygodnia" numFmtId="0" hierarchy="4" level="1" mappingCount="1">
       <sharedItems count="5">
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Poniedziałek]" c="Poniedziałek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Wtorek]" c="Wtorek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Środa]" c="Środa"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Czwartek]" c="Czwartek"/>
+        <s v="[Data].[Dzien Tygodnia].&amp;[Piątek]" c="Piątek"/>
+      </sharedItems>
+      <mpMap v="2"/>
+    </cacheField>
+    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia].[Numer Dnia Tygodnia]" caption="Numer Dnia Tygodnia" propertyName="Numer Dnia Tygodnia" numFmtId="0" hierarchy="4" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6" count="5">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -1774,22 +1823,12 @@
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -1800,20 +1839,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -1885,38 +1935,63 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912824421299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828937500002" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
+    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems count="44">
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy pojazd uprzywilejowany?]" c="Co należy zrobić, gdy widzimy pojazd uprzywilejowany?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?]" c="Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?]" c="Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Stop'?]" c="Co należy zrobić, gdy widzimy znak 'Stop'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?]" c="Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?]" c="Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza czerwone światło na sygnalizatorze?]" c="Co oznacza czerwone światło na sygnalizatorze?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza zielone światło na sygnalizatorze?]" c="Co oznacza zielone światło na sygnalizatorze?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla pieszych'?]" c="Co oznacza znak 'Droga dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec autostrady'?]" c="Co oznacza znak 'Koniec autostrady'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Obowiązkowy kierunek jazdy'?]" c="Co oznacza znak 'Obowiązkowy kierunek jazdy'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak ograniczenie prędkości?]" c="Co oznacza znak ograniczenie prędkości?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Przejazd kolejowy z zaporami'?]" c="Co oznacza znak 'Przejazd kolejowy z zaporami'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, dzieci'?]" c="Co oznacza znak 'Uwaga, dzieci'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w lewo'?]" c="Co oznacza znak 'Zakaz skrętu w lewo'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu motocykli'?]" c="Co oznacza znak 'Zakaz wjazdu motocykli'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu przyczep'?]" c="Co oznacza znak 'Zakaz wjazdu przyczep'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak zakaz wjazdu?]" c="Co oznacza znak zakaz wjazdu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania'?]" c="Co oznacza znak 'Zakaz wyprzedzania'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz zatrzymywania się'?]" c="Co oznacza znak 'Zakaz zatrzymywania się'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?]" c="Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można korzystać z telefonu podczas prowadzenia pojazdu?]" c="Czy można korzystać z telefonu podczas prowadzenia pojazdu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można parkować na chodniku?]" c="Czy można parkować na chodniku?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można prowadzić pojazd bez ubezpieczenia?]" c="Czy można prowadzić pojazd bez ubezpieczenia?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na przejściu dla pieszych?]" c="Czy można wyprzedzać na przejściu dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne ciśnienie w oponach?]" c="Jakie jest dopuszczalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ciśnienie w oponach?]" c="Jakie jest minimalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze ekspresowej?]" c="Jakie jest ograniczenie prędkości na drodze ekspresowej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze krajowej?]" c="Jakie jest ograniczenie prędkości na drodze krajowej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w strefie zamieszkania?]" c="Jakie jest ograniczenie prędkości w strefie zamieszkania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na rondzie?]" c="Jakie jest pierwszeństwo na rondzie?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są objawy aquaplaningu?]" c="Jakie są objawy aquaplaningu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady parkowania na chodniku?]" c="Jakie są zasady parkowania na chodniku?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych poza terenem zabudowanym?]" c="Jakie są zasady używania świateł drogowych poza terenem zabudowanym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych?]" c="Jakie są zasady używania świateł drogowych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w dzień?]" c="Jakie są zasady używania świateł mijania w dzień?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w nocy?]" c="Jakie są zasady używania świateł mijania w nocy?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł przeciwmgielnych?]" c="Jakie są zasady używania świateł przeciwmgielnych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy można używać klaksonu?]" c="Kiedy można używać klaksonu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać świateł przeciwmgielnych?]" c="Kiedy należy używać świateł przeciwmgielnych?"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -1924,31 +1999,31 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -1967,17 +2042,28 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -2049,7 +2135,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912824999999" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828939699073" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
@@ -2080,7 +2166,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -2140,8 +2226,19 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -2213,77 +2310,38 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912826273146" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828945138892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
+    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="1">
+        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="58">
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii na autostradzie?]" c="Co należy zrobić w przypadku awarii na autostradzie?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy pojazd uprzywilejowany?]" c="Co należy zrobić, gdy widzimy pojazd uprzywilejowany?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?]" c="Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?]" c="Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Stop'?]" c="Co należy zrobić, gdy widzimy znak 'Stop'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?]" c="Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?]" c="Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza czerwone światło na sygnalizatorze?]" c="Co oznacza czerwone światło na sygnalizatorze?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza zielone światło na sygnalizatorze?]" c="Co oznacza zielone światło na sygnalizatorze?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla pieszych'?]" c="Co oznacza znak 'Droga dla pieszych'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla rowerów'?]" c="Co oznacza znak 'Droga dla rowerów'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem'?]" c="Co oznacza znak 'Droga z pierwszeństwem'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec autostrady'?]" c="Co oznacza znak 'Koniec autostrady'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec ograniczenia prędkości'?]" c="Co oznacza znak 'Koniec ograniczenia prędkości'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Obowiązkowy kierunek jazdy'?]" c="Co oznacza znak 'Obowiązkowy kierunek jazdy'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak ograniczenie prędkości?]" c="Co oznacza znak ograniczenie prędkości?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Przejazd kolejowy z zaporami'?]" c="Co oznacza znak 'Przejazd kolejowy z zaporami'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, dzieci'?]" c="Co oznacza znak 'Uwaga, dzieci'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w lewo'?]" c="Co oznacza znak 'Zakaz skrętu w lewo'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu motocykli'?]" c="Co oznacza znak 'Zakaz wjazdu motocykli'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu przyczep'?]" c="Co oznacza znak 'Zakaz wjazdu przyczep'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu rowerów'?]" c="Co oznacza znak 'Zakaz wjazdu rowerów'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak zakaz wjazdu?]" c="Co oznacza znak zakaz wjazdu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania'?]" c="Co oznacza znak 'Zakaz wyprzedzania'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz zatrzymywania się'?]" c="Co oznacza znak 'Zakaz zatrzymywania się'?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?]" c="Co oznacza znak 'Znak ostrzegawczy' z symbolem skrzyżowania?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można korzystać z telefonu podczas prowadzenia pojazdu?]" c="Czy można korzystać z telefonu podczas prowadzenia pojazdu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można parkować na chodniku?]" c="Czy można parkować na chodniku?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można prowadzić pojazd bez ubezpieczenia?]" c="Czy można prowadzić pojazd bez ubezpieczenia?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na przejściu dla pieszych?]" c="Czy można wyprzedzać na przejściu dla pieszych?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na skrzyżowaniu?]" c="Czy można wyprzedzać na skrzyżowaniu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać pojazd na przejściu dla pieszych?]" c="Czy można wyprzedzać pojazd na przejściu dla pieszych?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne ciśnienie w oponach?]" c="Jakie jest dopuszczalne ciśnienie w oponach?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?]" c="Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ciśnienie w oponach?]" c="Jakie jest minimalne ciśnienie w oponach?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?]" c="Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na autostradzie?]" c="Jakie jest ograniczenie prędkości na autostradzie?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze ekspresowej?]" c="Jakie jest ograniczenie prędkości na drodze ekspresowej?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze krajowej?]" c="Jakie jest ograniczenie prędkości na drodze krajowej?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w strefie zamieszkania?]" c="Jakie jest ograniczenie prędkości w strefie zamieszkania?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w terenie zabudowanym?]" c="Jakie jest ograniczenie prędkości w terenie zabudowanym?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na rondzie?]" c="Jakie jest pierwszeństwo na rondzie?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są objawy aquaplaningu?]" c="Jakie są objawy aquaplaningu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady parkowania na chodniku?]" c="Jakie są zasady parkowania na chodniku?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych poza terenem zabudowanym?]" c="Jakie są zasady używania świateł drogowych poza terenem zabudowanym?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych?]" c="Jakie są zasady używania świateł drogowych?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w dzień?]" c="Jakie są zasady używania świateł mijania w dzień?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w nocy?]" c="Jakie są zasady używania świateł mijania w nocy?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania?]" c="Jakie są zasady używania świateł mijania?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł przeciwmgielnych?]" c="Jakie są zasady używania świateł przeciwmgielnych?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Kiedy można używać klaksonu?]" c="Kiedy można używać klaksonu?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać pasów bezpieczeństwa?]" c="Kiedy należy używać pasów bezpieczeństwa?"/>
-        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać świateł przeciwmgielnych?]" c="Kiedy należy używać świateł przeciwmgielnych?"/>
+    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
+      <sharedItems count="6">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
+        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
+        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
+        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+      </sharedItems>
+      <mpMap v="3"/>
+    </cacheField>
+    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -2291,31 +2349,31 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[ID Kandydata]" caption="ID Kandydata" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Kandydat].[ID Kandydata].[All]" allUniqueName="[Kandydat].[ID Kandydata].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
@@ -2334,17 +2392,28 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -2416,41 +2485,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912826967593" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828948148148" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
-    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia]" caption="Dzien Tygodnia" numFmtId="0" hierarchy="4" level="1" mappingCount="1">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
       <sharedItems count="5">
-        <s v="[Data].[Dzien Tygodnia].&amp;[Poniedziałek]" c="Poniedziałek"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Wtorek]" c="Wtorek"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Środa]" c="Środa"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Czwartek]" c="Czwartek"/>
-        <s v="[Data].[Dzien Tygodnia].&amp;[Piątek]" c="Piątek"/>
-      </sharedItems>
-      <mpMap v="2"/>
-    </cacheField>
-    <cacheField name="[Data].[Dzien Tygodnia].[Dzien Tygodnia].[Numer Dnia Tygodnia]" caption="Numer Dnia Tygodnia" propertyName="Numer Dnia Tygodnia" numFmtId="0" hierarchy="4" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="6" count="5">
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Data]" caption="Data" attribute="1" time="1" defaultMemberUniqueName="[Data].[Data].[All]" allUniqueName="[Data].[Data].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
@@ -2467,12 +2524,22 @@
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Typ Egzaminu]" caption="Typ Egzaminu" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Egzaminu].[All]" allUniqueName="[Skarga].[Typ Egzaminu].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Typ Skargi]" caption="Typ Skargi" attribute="1" defaultMemberUniqueName="[Skarga].[Typ Skargi].[All]" allUniqueName="[Skarga].[Typ Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Czasu]" caption="ID Czasu" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Czasu].[All]" allUniqueName="[Termin Egzaminu].[ID Czasu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Daty]" caption="ID Daty" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Daty].[All]" allUniqueName="[Termin Egzaminu].[ID Daty].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" allUniqueName="[Termin Egzaminu].[ID Egzaminatora].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Termin Egzaminu].[ID Terminu Egzaminu]" caption="ID Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" allUniqueName="[Termin Egzaminu].[ID Terminu Egzaminu].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" attribute="1" defaultMemberUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" allUniqueName="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[All]" dimensionUniqueName="[Termin Egzaminu]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu]" caption="ID Zajetosci Terminu Egzaminu" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[ID Zajetosci Terminu Egzaminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu]" caption="Zajetosc Terminu" attribute="1" defaultMemberUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" allUniqueName="[Zajetosc Terminu Egzaminu].[Zajetosc Terminu].[All]" dimensionUniqueName="[Zajetosc Terminu Egzaminu]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba rezerwacji na termin]" caption="Liczba rezerwacji na termin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
@@ -2483,20 +2550,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -2568,38 +2646,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45618.912827546294" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.82895127315" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
-    <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
-        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
-        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
-      </sharedItems>
-      <mpMap v="3"/>
-    </cacheField>
-    <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-      </sharedItems>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
+    <cacheField name="[Skarga].[Czy Istnieja Powiazane Incydenty].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="45">
+  <cacheHierarchies count="53">
     <cacheHierarchy uniqueName="[Czas].[Godzina]" caption="Godzina" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Godzina].[All]" allUniqueName="[Czas].[Godzina].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[ID Czasu]" caption="ID Czasu" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Czas].[ID Czasu].[All]" allUniqueName="[Czas].[ID Czasu].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Czas].[Minuty]" caption="Minuty" attribute="1" time="1" defaultMemberUniqueName="[Czas].[Minuty].[All]" allUniqueName="[Czas].[Minuty].[All]" dimensionUniqueName="[Czas]" displayFolder="" count="0" unbalanced="0"/>
@@ -2607,18 +2662,8 @@
     <cacheHierarchy uniqueName="[Data].[Dzien Tygodnia]" caption="Dzien Tygodnia" attribute="1" time="1" defaultMemberUniqueName="[Data].[Dzien Tygodnia].[All]" allUniqueName="[Data].[Dzien Tygodnia].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[Data].[Hierarchy].[All]" allUniqueName="[Data].[Hierarchy].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data].[ID Daty]" caption="ID Daty" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data].[ID Daty].[All]" allUniqueName="[Data].[ID Daty].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Miesiac]" caption="Miesiac" attribute="1" time="1" defaultMemberUniqueName="[Data].[Miesiac].[All]" allUniqueName="[Data].[Miesiac].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Rok]" caption="Rok" attribute="1" time="1" defaultMemberUniqueName="[Data].[Rok].[All]" allUniqueName="[Data].[Rok].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[ID Egzaminatora]" caption="ID Egzaminatora" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Egzaminator].[ID Egzaminatora].[All]" allUniqueName="[Egzaminator].[ID Egzaminatora].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Imie I Nazwisko]" caption="Imie I Nazwisko" attribute="1" defaultMemberUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" allUniqueName="[Egzaminator].[Imie I Nazwisko].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Egzaminator].[Pesel]" caption="Pesel" attribute="1" defaultMemberUniqueName="[Egzaminator].[Pesel].[All]" allUniqueName="[Egzaminator].[Pesel].[All]" dimensionUniqueName="[Egzaminator]" displayFolder="" count="0" unbalanced="0"/>
@@ -2626,7 +2671,12 @@
     <cacheHierarchy uniqueName="[Kandydat].[PKK]" caption="PKK" attribute="1" defaultMemberUniqueName="[Kandydat].[PKK].[All]" allUniqueName="[Kandydat].[PKK].[All]" dimensionUniqueName="[Kandydat]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[ID Pytania]" caption="ID Pytania" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Pytanie].[ID Pytania].[All]" allUniqueName="[Pytanie].[ID Pytania].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pytanie].[Tresc]" caption="Tresc" attribute="1" defaultMemberUniqueName="[Pytanie].[Tresc].[All]" allUniqueName="[Pytanie].[Tresc].[All]" dimensionUniqueName="[Pytanie]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty]" caption="Czy Istnieja Powiazane Incydenty" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" allUniqueName="[Skarga].[Czy Istnieja Powiazane Incydenty].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania]" caption="Czy Kandydat Odpowiedzial Na Wszystkie Pytania" attribute="1" defaultMemberUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" allUniqueName="[Skarga].[Czy Kandydat Odpowiedzial Na Wszystkie Pytania].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Skarga].[Hierarchy].[All]" allUniqueName="[Skarga].[Hierarchy].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Skarga].[ID Skargi]" caption="ID Skargi" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Skarga].[ID Skargi].[All]" allUniqueName="[Skarga].[ID Skargi].[All]" dimensionUniqueName="[Skarga]" displayFolder="" count="0" unbalanced="0"/>
@@ -2647,20 +2697,31 @@
     <cacheHierarchy uniqueName="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba uczestników]" caption="Łączna liczba uczestników" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba rezerwacji]" caption="Łączna liczba rezerwacji" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Liczba skarg]" caption="Liczba skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Liczba powiązanych incydentów]" caption="Liczba powiązanych incydentów" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" measure="1" displayFolder="" measureGroup="Zlozenie Skargi 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Liczba pytań]" caption="Liczba pytań" measure="1" displayFolder="" measureGroup="Odpowiedzenie Na Pytanie Podczas Egzaminu Ze Skarga" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
-  <kpis count="0"/>
+  <kpis count="2">
+    <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
+    <kpi uniqueName="Zmniejszenie Liczby Skarg" caption="Zmniejszenie Liczby Skarg" displayFolder="" measureGroup="Zlozenie Skargi" parent="" value="[Measures].[Liczba skarg]" goal="[Measures].[Zmniejszenie Liczby Skarg Goal]" status="[Measures].[Zmniejszenie Liczby Skarg Status]" trend="[Measures].[Zmniejszenie Liczby Skarg Trend]" weight=""/>
+  </kpis>
   <dimensions count="9">
     <dimension name="Czas" uniqueName="[Czas]" caption="Czas"/>
     <dimension name="Data" uniqueName="[Data]" caption="Data"/>
@@ -2732,7 +2793,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="250" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2789,7 +2850,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2839,6 +2900,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
@@ -2857,7 +2928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="268" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2875,52 +2946,62 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  <pivotHierarchies count="55">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2935,7 +3016,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="271" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2955,7 +3036,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3006,6 +3087,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3020,8 +3111,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="109" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="247" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -3030,12 +3121,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3044,7 +3133,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -3056,12 +3145,6 @@
     </i>
     <i r="1">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3073,7 +3156,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3123,6 +3206,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
@@ -3141,7 +3234,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="253" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3185,7 +3278,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3235,6 +3328,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -3252,7 +3355,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="262" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3309,7 +3412,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3359,6 +3462,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
@@ -3377,7 +3490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="259" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3434,7 +3547,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3484,6 +3597,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
@@ -3502,7 +3625,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="274" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3560,7 +3683,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
+  <pivotHierarchies count="55">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3610,6 +3733,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -3627,7 +3760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="265" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3674,52 +3807,62 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  <pivotHierarchies count="55">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -3737,13 +3880,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="256" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="58">
+      <items count="44">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3788,27 +3931,13 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="59">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -3940,48 +4069,6 @@
     </i>
     <i>
       <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -3996,52 +4083,62 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  <pivotHierarchies count="55">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -4059,7 +4156,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="244" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -4122,52 +4219,62 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="45">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  <pivotHierarchies count="55">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
@@ -4539,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>19.974800245851259</v>
+        <v>19.939530906425606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4552,7 +4659,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4">
         <v>21.618733772718194</v>
@@ -4563,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>20.117084987551308</v>
+        <v>20.110453914056549</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4707,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4752,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -4683,50 +4790,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +4852,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>12.354080221300139</v>
+        <v>12.365145228215768</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4769,7 +4860,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>12.12912087912088</v>
+        <v>12.145604395604396</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4777,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>12.394444444444444</v>
+        <v>12.408333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4785,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>12.379694019471488</v>
+        <v>12.392211404728791</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4793,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="4">
-        <v>12.107671601615074</v>
+        <v>12.123822341857336</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4801,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>12.271676300578035</v>
+        <v>12.285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4851,7 +4942,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4859,7 +4950,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4867,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>24905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4880,7 +4971,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4">
         <v>25035</v>
@@ -4891,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>53875</v>
+        <v>27105</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +5048,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>12.671339563862928</v>
+        <v>12.750778816199377</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +5061,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4">
         <v>9.1535648994515544</v>
@@ -4981,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>12.271676300578035</v>
+        <v>12.285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5039,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5047,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5071,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5205,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5213,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5221,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5229,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5164,15 +5255,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396E4A6-D249-4F8F-BBB0-833858200275}">
-  <dimension ref="A2:B63"/>
+  <dimension ref="A2:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5194,7 +5285,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -5210,7 +5301,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -5218,23 +5309,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -5242,15 +5333,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -5258,31 +5349,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -5290,15 +5381,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -5306,7 +5397,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -5314,7 +5405,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -5322,7 +5413,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -5330,31 +5421,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
@@ -5362,39 +5453,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
@@ -5402,55 +5493,55 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B31" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -5458,23 +5549,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
@@ -5482,7 +5573,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -5490,15 +5581,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B42" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -5506,15 +5597,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -5522,7 +5613,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -5530,138 +5621,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B49" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="4">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5673,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68659609-96BE-43A8-866E-45E48E4CABC3}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5693,82 +5672,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5776,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>535</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/lab04/Queries.xlsx
+++ b/lab04/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8811E58A-A827-4EAC-82B4-3FABAA93CE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E9C80-FDDB-488A-B6BC-1CA33573388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="7" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0FE0208F-B594-46F3-BEE1-52AD3B7DC0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="3.3.1" sheetId="8" r:id="rId1"/>
@@ -27,17 +27,17 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="244" r:id="rId12"/>
-    <pivotCache cacheId="247" r:id="rId13"/>
-    <pivotCache cacheId="250" r:id="rId14"/>
-    <pivotCache cacheId="253" r:id="rId15"/>
-    <pivotCache cacheId="256" r:id="rId16"/>
-    <pivotCache cacheId="259" r:id="rId17"/>
-    <pivotCache cacheId="262" r:id="rId18"/>
-    <pivotCache cacheId="265" r:id="rId19"/>
-    <pivotCache cacheId="268" r:id="rId20"/>
-    <pivotCache cacheId="271" r:id="rId21"/>
-    <pivotCache cacheId="274" r:id="rId22"/>
+    <pivotCache cacheId="46" r:id="rId12"/>
+    <pivotCache cacheId="49" r:id="rId13"/>
+    <pivotCache cacheId="52" r:id="rId14"/>
+    <pivotCache cacheId="55" r:id="rId15"/>
+    <pivotCache cacheId="58" r:id="rId16"/>
+    <pivotCache cacheId="61" r:id="rId17"/>
+    <pivotCache cacheId="64" r:id="rId18"/>
+    <pivotCache cacheId="67" r:id="rId19"/>
+    <pivotCache cacheId="70" r:id="rId20"/>
+    <pivotCache cacheId="73" r:id="rId21"/>
+    <pivotCache cacheId="76" r:id="rId22"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="146">
   <si>
     <t>Średni czas oczekiwania na egzamin</t>
   </si>
@@ -195,30 +195,12 @@
     <t>Kandydat Nie Zdołał Odpowiedzieć Na Wszystkie Pytania</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>Wtorek</t>
   </si>
   <si>
     <t>Piątek</t>
   </si>
   <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>979</t>
-  </si>
-  <si>
     <t>Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?</t>
   </si>
   <si>
@@ -270,36 +252,6 @@
     <t>Kiedy należy używać świateł przeciwmgielnych?</t>
   </si>
   <si>
-    <t>14040288601</t>
-  </si>
-  <si>
-    <t>16012395393</t>
-  </si>
-  <si>
-    <t>16042143005</t>
-  </si>
-  <si>
-    <t>19021381580</t>
-  </si>
-  <si>
-    <t>23250762146</t>
-  </si>
-  <si>
-    <t>46011838544</t>
-  </si>
-  <si>
-    <t>49010714778</t>
-  </si>
-  <si>
-    <t>57050594043</t>
-  </si>
-  <si>
-    <t>88080744315</t>
-  </si>
-  <si>
-    <t>97030663488</t>
-  </si>
-  <si>
     <t>Jakie jest minimalne ciśnienie w oponach?</t>
   </si>
   <si>
@@ -382,6 +334,219 @@
   </si>
   <si>
     <t>Jakie są zasady używania świateł mijania w dzień?</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku awarii na autostradzie?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić w przypadku kolizji drogowej?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Droga z pierwszeństwem'?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak STOP?</t>
+  </si>
+  <si>
+    <t>Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?</t>
+  </si>
+  <si>
+    <t>Co oznacza niebieski znak z białą literą P?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga dla rowerów'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Droga z pierwszeństwem'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Koniec ograniczenia prędkości'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Uwaga, zwierzęta'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz postoju'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz skrętu w prawo'?</t>
+  </si>
+  <si>
+    <t>Co oznacza znak 'Zakaz wjazdu rowerów'?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać na skrzyżowaniu?</t>
+  </si>
+  <si>
+    <t>Czy można wyprzedzać pojazd na przejściu dla pieszych?</t>
+  </si>
+  <si>
+    <t>Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?</t>
+  </si>
+  <si>
+    <t>Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne odstępy między pojazdami w tunelu?</t>
+  </si>
+  <si>
+    <t>Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości na autostradzie?</t>
+  </si>
+  <si>
+    <t>Jakie jest ograniczenie prędkości w terenie zabudowanym?</t>
+  </si>
+  <si>
+    <t>Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania pasów bezpieczeństwa?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł drogowych w terenie zabudowanym?</t>
+  </si>
+  <si>
+    <t>Jakie są zasady używania świateł mijania?</t>
+  </si>
+  <si>
+    <t>Kiedy należy używać pasów bezpieczeństwa?</t>
+  </si>
+  <si>
+    <t>Kiedy należy wymienić opony na zimowe?</t>
+  </si>
+  <si>
+    <t>08280867346</t>
+  </si>
+  <si>
+    <t>14042088605</t>
+  </si>
+  <si>
+    <t>14232870070</t>
+  </si>
+  <si>
+    <t>16021095394</t>
+  </si>
+  <si>
+    <t>16050943004</t>
+  </si>
+  <si>
+    <t>19030381582</t>
+  </si>
+  <si>
+    <t>20310458306</t>
+  </si>
+  <si>
+    <t>22020775214</t>
+  </si>
+  <si>
+    <t>22270137862</t>
+  </si>
+  <si>
+    <t>23252562140</t>
+  </si>
+  <si>
+    <t>25082607510</t>
+  </si>
+  <si>
+    <t>46020538545</t>
+  </si>
+  <si>
+    <t>49012514772</t>
+  </si>
+  <si>
+    <t>57052394047</t>
+  </si>
+  <si>
+    <t>64011094607</t>
+  </si>
+  <si>
+    <t>67011743465</t>
+  </si>
+  <si>
+    <t>79070366831</t>
+  </si>
+  <si>
+    <t>88082544319</t>
+  </si>
+  <si>
+    <t>97032463482</t>
+  </si>
+  <si>
+    <t>98041155380</t>
   </si>
 </sst>
 </file>
@@ -934,22 +1099,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828921759261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854908796297" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EDAA29B6-B94C-4D0A-8196-521B5732F82D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
     <cacheField name="[Egzaminator].[Pesel].[Pesel]" caption="Pesel" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="10">
-        <s v="[Egzaminator].[Pesel].&amp;[14040288601]" c="14040288601"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16012395393]" c="16012395393"/>
-        <s v="[Egzaminator].[Pesel].&amp;[16042143005]" c="16042143005"/>
-        <s v="[Egzaminator].[Pesel].&amp;[19021381580]" c="19021381580"/>
-        <s v="[Egzaminator].[Pesel].&amp;[23250762146]" c="23250762146"/>
-        <s v="[Egzaminator].[Pesel].&amp;[46011838544]" c="46011838544"/>
-        <s v="[Egzaminator].[Pesel].&amp;[49010714778]" c="49010714778"/>
-        <s v="[Egzaminator].[Pesel].&amp;[57050594043]" c="57050594043"/>
-        <s v="[Egzaminator].[Pesel].&amp;[88080744315]" c="88080744315"/>
-        <s v="[Egzaminator].[Pesel].&amp;[97030663488]" c="97030663488"/>
+      <sharedItems count="20">
+        <s v="[Egzaminator].[Pesel].&amp;[08280867346]" c="08280867346"/>
+        <s v="[Egzaminator].[Pesel].&amp;[14042088605]" c="14042088605"/>
+        <s v="[Egzaminator].[Pesel].&amp;[14232870070]" c="14232870070"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16021095394]" c="16021095394"/>
+        <s v="[Egzaminator].[Pesel].&amp;[16050943004]" c="16050943004"/>
+        <s v="[Egzaminator].[Pesel].&amp;[19030381582]" c="19030381582"/>
+        <s v="[Egzaminator].[Pesel].&amp;[20310458306]" c="20310458306"/>
+        <s v="[Egzaminator].[Pesel].&amp;[22020775214]" c="22020775214"/>
+        <s v="[Egzaminator].[Pesel].&amp;[22270137862]" c="22270137862"/>
+        <s v="[Egzaminator].[Pesel].&amp;[23252562140]" c="23252562140"/>
+        <s v="[Egzaminator].[Pesel].&amp;[25082607510]" c="25082607510"/>
+        <s v="[Egzaminator].[Pesel].&amp;[46020538545]" c="46020538545"/>
+        <s v="[Egzaminator].[Pesel].&amp;[49012514772]" c="49012514772"/>
+        <s v="[Egzaminator].[Pesel].&amp;[57052394047]" c="57052394047"/>
+        <s v="[Egzaminator].[Pesel].&amp;[64011094607]" c="64011094607"/>
+        <s v="[Egzaminator].[Pesel].&amp;[67011743465]" c="67011743465"/>
+        <s v="[Egzaminator].[Pesel].&amp;[79070366831]" c="79070366831"/>
+        <s v="[Egzaminator].[Pesel].&amp;[88082544319]" c="88082544319"/>
+        <s v="[Egzaminator].[Pesel].&amp;[97032463482]" c="97032463482"/>
+        <s v="[Egzaminator].[Pesel].&amp;[98041155380]" c="98041155380"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1010,12 +1185,12 @@
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="2">
     <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
@@ -1092,7 +1267,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828954745368" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854913194446" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1733CCD2-B9F2-4756-8539-214B3CA0E949}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba kandydatów którzy złożyli skargi]" caption="Liczba kandydatów którzy złożyli skargi" numFmtId="0" hierarchy="39" level="32767"/>
@@ -1247,7 +1422,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.82895787037" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854913773146" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D23C14AE-DFF4-46F3-8A87-861EEDD53DFD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Liczba egzaminów]" caption="Liczba egzaminów" numFmtId="0" hierarchy="34" level="32767"/>
@@ -1255,31 +1430,29 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" c="2021"/>
+      <sharedItems count="12">
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2001]" c="2001"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2002]" c="2002"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2003]" c="2003"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2004]" c="2004"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2005]" c="2005"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2006]" c="2006"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2007]" c="2007"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2008]" c="2008"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2009]" c="2009"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2010]" c="2010"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2011]" c="2011"/>
+        <s v="[Data].[Hierarchy].[Rok].&amp;[2021]" u="1" c="2021"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2" mappingCount="1">
-      <sharedItems count="5">
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Styczeń]" c="Styczeń"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Luty]" c="Luty"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Marzec]" c="Marzec"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Kwiecień]" c="Kwiecień"/>
-        <s v="[Data].[Hierarchy].[Rok].&amp;[2021].&amp;[Maj]" c="Maj"/>
-      </sharedItems>
-      <mpMap v="5"/>
+    <cacheField name="[Data].[Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="5" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Data]" caption="Data" numFmtId="0" hierarchy="5" level="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Data].[Hierarchy].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="53">
@@ -1346,12 +1519,12 @@
     <cacheHierarchy uniqueName="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" measure="1" displayFolder="" measureGroup="Odbycie Sie Egzaminu" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Value]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Goal)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zarezerwowanie Terminu" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[___Zmniejszenie Liczby Skarg Value]" caption="Zmniejszenie Liczby Skarg" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Goal]" caption="Zmniejszenie Liczby Skarg (Goal)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Status]" caption="Zmniejszenie Liczby Skarg (Status)" measure="1" iconSet="8" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Zmniejszenie Liczby Skarg Trend]" caption="Zmniejszenie Liczby Skarg (Trend)" measure="1" iconSet="5" displayFolder="" measureGroup="Zlozenie Skargi" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="2">
     <kpi uniqueName="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" caption="Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu" displayFolder="" measureGroup="Zarezerwowanie Terminu" parent="" value="[Measures].[Średni czas oczekiwania na egzamin]" goal="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Goal]" status="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Status]" trend="[Measures].[Zmniejszenie Średniego Czasu Oczekiwania na Termin Egzaminu Trend]" weight=""/>
@@ -1428,28 +1601,50 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828926736111" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854909259258" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{37400404-E3DB-4AA7-9B37-483ECC7E0774}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
     <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      <sharedItems count="5">
+        <s v="[Data].[Rok].&amp;[2007]" c="2007"/>
+        <s v="[Data].[Rok].&amp;[2008]" c="2008"/>
+        <s v="[Data].[Rok].&amp;[2009]" c="2009"/>
+        <s v="[Data].[Rok].&amp;[2010]" c="2010"/>
+        <s v="[Data].[Rok].&amp;[2011]" c="2011"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="3">
+      <sharedItems count="12">
+        <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
+        <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
+        <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+        <s v="[Data].[Miesiac].&amp;[Sierpień]" c="Sierpień"/>
+        <s v="[Data].[Miesiac].&amp;[Wrzesień]" c="Wrzesień"/>
+        <s v="[Data].[Miesiac].&amp;[Październik]" c="Październik"/>
+        <s v="[Data].[Miesiac].&amp;[Listopad]" c="Listopad"/>
+        <s v="[Data].[Miesiac].&amp;[Grudzień]" c="Grudzień"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1597,34 +1792,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828930439813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854909837966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6BD7594C-0175-4998-B9B3-37E5A8ED475E}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Średni czas oczekiwania na egzamin]" caption="Średni czas oczekiwania na egzamin" numFmtId="0" hierarchy="42" level="32767"/>
     <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      <sharedItems count="11">
+        <s v="[Data].[Rok].&amp;[2001]" c="2001"/>
+        <s v="[Data].[Rok].&amp;[2002]" c="2002"/>
+        <s v="[Data].[Rok].&amp;[2003]" c="2003"/>
+        <s v="[Data].[Rok].&amp;[2004]" c="2004"/>
+        <s v="[Data].[Rok].&amp;[2005]" c="2005"/>
+        <s v="[Data].[Rok].&amp;[2006]" c="2006"/>
+        <s v="[Data].[Rok].&amp;[2007]" c="2007"/>
+        <s v="[Data].[Rok].&amp;[2008]" c="2008"/>
+        <s v="[Data].[Rok].&amp;[2009]" c="2009"/>
+        <s v="[Data].[Rok].&amp;[2010]" c="2010"/>
+        <s v="[Data].[Rok].&amp;[2011]" c="2011"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
+      <sharedItems count="12">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
         <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+        <s v="[Data].[Miesiac].&amp;[Sierpień]" c="Sierpień"/>
+        <s v="[Data].[Miesiac].&amp;[Wrzesień]" c="Wrzesień"/>
+        <s v="[Data].[Miesiac].&amp;[Październik]" c="Październik"/>
+        <s v="[Data].[Miesiac].&amp;[Listopad]" c="Listopad"/>
+        <s v="[Data].[Miesiac].&amp;[Grudzień]" c="Grudzień"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
         <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1772,7 +1989,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828934259262" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854910532405" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EAA51855-1558-401A-BF95-A8D3866F610B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Średnia liczba rezerwacji]" caption="Średnia liczba rezerwacji" numFmtId="0" hierarchy="41" level="32767"/>
@@ -1935,7 +2152,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828937500002" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854911111113" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6B514316-8103-42FA-B301-BBAE9F6A1E04}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba pytań]" caption="Liczba pytań" numFmtId="0" hierarchy="40" level="32767"/>
@@ -1943,26 +2160,41 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Pytanie].[Tresc].[Tresc]" caption="Tresc" numFmtId="0" hierarchy="15" level="1">
-      <sharedItems count="44">
+      <sharedItems count="73">
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii na autostradzie?]" c="Co należy zrobić w przypadku awarii na autostradzie?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?]" c="Co należy zrobić w przypadku awarii pojazdu na drodze szybkiego ruchu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić w przypadku kolizji drogowej?]" c="Co należy zrobić w przypadku kolizji drogowej?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy pojazd uprzywilejowany?]" c="Co należy zrobić, gdy widzimy pojazd uprzywilejowany?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?]" c="Co należy zrobić, gdy widzimy znak 'Droga jednokierunkowa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Droga z pierwszeństwem'?]" c="Co należy zrobić, gdy widzimy znak 'Droga z pierwszeństwem'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?]" c="Co należy zrobić, gdy widzimy znak 'Przejście dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak STOP?]" c="Co należy zrobić, gdy widzimy znak STOP?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Stop'?]" c="Co należy zrobić, gdy widzimy znak 'Stop'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?]" c="Co należy zrobić, gdy widzimy znak 'Ustąp pierwszeństwa'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz parkowania'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu rowerów'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?]" c="Co należy zrobić, gdy widzimy znak 'Zakaz wjazdu'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?]" c="Co należy zrobić, gdy zbliżamy się do przejścia dla pieszych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza czerwone światło na sygnalizatorze?]" c="Co oznacza czerwone światło na sygnalizatorze?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza niebieski znak z białą literą P?]" c="Co oznacza niebieski znak z białą literą P?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza zielone światło na sygnalizatorze?]" c="Co oznacza zielone światło na sygnalizatorze?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla pieszych'?]" c="Co oznacza znak 'Droga dla pieszych'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga dla rowerów'?]" c="Co oznacza znak 'Droga dla rowerów'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?]" c="Co oznacza znak 'Droga z pierwszeństwem' z symbolem drogi podporządkowanej?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Droga z pierwszeństwem'?]" c="Co oznacza znak 'Droga z pierwszeństwem'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec autostrady'?]" c="Co oznacza znak 'Koniec autostrady'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Koniec ograniczenia prędkości'?]" c="Co oznacza znak 'Koniec ograniczenia prędkości'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Obowiązkowy kierunek jazdy'?]" c="Co oznacza znak 'Obowiązkowy kierunek jazdy'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak ograniczenie prędkości?]" c="Co oznacza znak ograniczenie prędkości?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Przejazd kolejowy z zaporami'?]" c="Co oznacza znak 'Przejazd kolejowy z zaporami'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, dzieci'?]" c="Co oznacza znak 'Uwaga, dzieci'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Uwaga, zwierzęta'?]" c="Co oznacza znak 'Uwaga, zwierzęta'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz postoju'?]" c="Co oznacza znak 'Zakaz postoju'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w lewo'?]" c="Co oznacza znak 'Zakaz skrętu w lewo'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz skrętu w prawo'?]" c="Co oznacza znak 'Zakaz skrętu w prawo'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu motocykli'?]" c="Co oznacza znak 'Zakaz wjazdu motocykli'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu przyczep'?]" c="Co oznacza znak 'Zakaz wjazdu przyczep'?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu rowerów'?]" c="Co oznacza znak 'Zakaz wjazdu rowerów'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wjazdu samochodów ciężarowych'?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak zakaz wjazdu?]" c="Co oznacza znak zakaz wjazdu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?]" c="Co oznacza znak 'Zakaz wyprzedzania samochodów ciężarowych'?"/>
@@ -1973,21 +2205,35 @@
         <s v="[Pytanie].[Tresc].&amp;[Czy można parkować na chodniku?]" c="Czy można parkować na chodniku?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można prowadzić pojazd bez ubezpieczenia?]" c="Czy można prowadzić pojazd bez ubezpieczenia?"/>
         <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na przejściu dla pieszych?]" c="Czy można wyprzedzać na przejściu dla pieszych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać na skrzyżowaniu?]" c="Czy można wyprzedzać na skrzyżowaniu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Czy można wyprzedzać pojazd na przejściu dla pieszych?]" c="Czy można wyprzedzać pojazd na przejściu dla pieszych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne ciśnienie w oponach?]" c="Jakie jest dopuszczalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?]" c="Jakie jest dopuszczalne stężenie alkoholu we krwi kierowcy?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?]" c="Jakie jest maksymalne dopuszczalne stężenie alkoholu we krwi kierowcy w Polsce?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ciśnienie w oponach?]" c="Jakie jest minimalne ciśnienie w oponach?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne odstępy między pojazdami w tunelu?]" c="Jakie jest minimalne odstępy między pojazdami w tunelu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?]" c="Jakie jest minimalne ogumienie dozwolone na samochodzie osobowym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na autostradzie?]" c="Jakie jest ograniczenie prędkości na autostradzie?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze ekspresowej?]" c="Jakie jest ograniczenie prędkości na drodze ekspresowej?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości na drodze krajowej?]" c="Jakie jest ograniczenie prędkości na drodze krajowej?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w strefie zamieszkania?]" c="Jakie jest ograniczenie prędkości w strefie zamieszkania?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest ograniczenie prędkości w terenie zabudowanym?]" c="Jakie jest ograniczenie prędkości w terenie zabudowanym?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na rondzie?]" c="Jakie jest pierwszeństwo na rondzie?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?]" c="Jakie jest pierwszeństwo na skrzyżowaniu równorzędnym?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są objawy aquaplaningu?]" c="Jakie są objawy aquaplaningu?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady parkowania na chodniku?]" c="Jakie są zasady parkowania na chodniku?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania pasów bezpieczeństwa?]" c="Jakie są zasady używania pasów bezpieczeństwa?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych poza terenem zabudowanym?]" c="Jakie są zasady używania świateł drogowych poza terenem zabudowanym?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych w terenie zabudowanym?]" c="Jakie są zasady używania świateł drogowych w terenie zabudowanym?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł drogowych?]" c="Jakie są zasady używania świateł drogowych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w dzień?]" c="Jakie są zasady używania świateł mijania w dzień?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania w nocy?]" c="Jakie są zasady używania świateł mijania w nocy?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł mijania?]" c="Jakie są zasady używania świateł mijania?"/>
         <s v="[Pytanie].[Tresc].&amp;[Jakie są zasady używania świateł przeciwmgielnych?]" c="Jakie są zasady używania świateł przeciwmgielnych?"/>
         <s v="[Pytanie].[Tresc].&amp;[Kiedy można używać klaksonu?]" c="Kiedy można używać klaksonu?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać pasów bezpieczeństwa?]" c="Kiedy należy używać pasów bezpieczeństwa?"/>
         <s v="[Pytanie].[Tresc].&amp;[Kiedy należy używać świateł przeciwmgielnych?]" c="Kiedy należy używać świateł przeciwmgielnych?"/>
+        <s v="[Pytanie].[Tresc].&amp;[Kiedy należy wymienić opony na zimowe?]" c="Kiedy należy wymienić opony na zimowe?"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2135,34 +2381,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828939699073" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854911805553" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3D05820F-88AE-46FE-9E60-268CB7FD8052}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Średnia liczba rezerwacji na kandydata]" caption="Średnia liczba rezerwacji na kandydata" numFmtId="0" hierarchy="43" level="32767"/>
     <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      <sharedItems count="11">
+        <s v="[Data].[Rok].&amp;[2001]" c="2001"/>
+        <s v="[Data].[Rok].&amp;[2002]" c="2002"/>
+        <s v="[Data].[Rok].&amp;[2003]" c="2003"/>
+        <s v="[Data].[Rok].&amp;[2004]" c="2004"/>
+        <s v="[Data].[Rok].&amp;[2005]" c="2005"/>
+        <s v="[Data].[Rok].&amp;[2006]" c="2006"/>
+        <s v="[Data].[Rok].&amp;[2007]" c="2007"/>
+        <s v="[Data].[Rok].&amp;[2008]" c="2008"/>
+        <s v="[Data].[Rok].&amp;[2009]" c="2009"/>
+        <s v="[Data].[Rok].&amp;[2010]" c="2010"/>
+        <s v="[Data].[Rok].&amp;[2011]" c="2011"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
+      <sharedItems count="12">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
         <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+        <s v="[Data].[Miesiac].&amp;[Sierpień]" c="Sierpień"/>
+        <s v="[Data].[Miesiac].&amp;[Wrzesień]" c="Wrzesień"/>
+        <s v="[Data].[Miesiac].&amp;[Październik]" c="Październik"/>
+        <s v="[Data].[Miesiac].&amp;[Listopad]" c="Listopad"/>
+        <s v="[Data].[Miesiac].&amp;[Grudzień]" c="Grudzień"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
         <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2310,34 +2578,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828945138892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854912268522" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{965E1953-E265-4900-A23F-F48C3B3F6EDB}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Łączna liczba kandydatów nieobecnych]" caption="Łączna liczba kandydatów nieobecnych" numFmtId="0" hierarchy="44" level="32767"/>
     <cacheField name="[Data].[Rok].[Rok]" caption="Rok" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="1">
-        <s v="[Data].[Rok].&amp;[2021]" c="2021"/>
+      <sharedItems count="11">
+        <s v="[Data].[Rok].&amp;[2001]" c="2001"/>
+        <s v="[Data].[Rok].&amp;[2002]" c="2002"/>
+        <s v="[Data].[Rok].&amp;[2003]" c="2003"/>
+        <s v="[Data].[Rok].&amp;[2004]" c="2004"/>
+        <s v="[Data].[Rok].&amp;[2005]" c="2005"/>
+        <s v="[Data].[Rok].&amp;[2006]" c="2006"/>
+        <s v="[Data].[Rok].&amp;[2007]" c="2007"/>
+        <s v="[Data].[Rok].&amp;[2008]" c="2008"/>
+        <s v="[Data].[Rok].&amp;[2009]" c="2009"/>
+        <s v="[Data].[Rok].&amp;[2010]" c="2010"/>
+        <s v="[Data].[Rok].&amp;[2011]" c="2011"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="7" level="1" mappingCount="1">
-      <sharedItems count="6">
+      <sharedItems count="12">
         <s v="[Data].[Miesiac].&amp;[Styczeń]" c="Styczeń"/>
         <s v="[Data].[Miesiac].&amp;[Luty]" c="Luty"/>
         <s v="[Data].[Miesiac].&amp;[Marzec]" c="Marzec"/>
         <s v="[Data].[Miesiac].&amp;[Kwiecień]" c="Kwiecień"/>
         <s v="[Data].[Miesiac].&amp;[Maj]" c="Maj"/>
         <s v="[Data].[Miesiac].&amp;[Czerwiec]" c="Czerwiec"/>
+        <s v="[Data].[Miesiac].&amp;[Lipiec]" c="Lipiec"/>
+        <s v="[Data].[Miesiac].&amp;[Sierpień]" c="Sierpień"/>
+        <s v="[Data].[Miesiac].&amp;[Wrzesień]" c="Wrzesień"/>
+        <s v="[Data].[Miesiac].&amp;[Październik]" c="Październik"/>
+        <s v="[Data].[Miesiac].&amp;[Listopad]" c="Listopad"/>
+        <s v="[Data].[Miesiac].&amp;[Grudzień]" c="Grudzień"/>
       </sharedItems>
       <mpMap v="3"/>
     </cacheField>
     <cacheField name="[Data].[Miesiac].[Miesiac].[Numer Miesiaca]" caption="Numer Miesiaca" propertyName="Numer Miesiaca" numFmtId="0" hierarchy="7" level="1" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
         <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2485,17 +2775,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.828948148148" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854912847222" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D8ED1B2D-A008-499B-8085-266B359926E3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
     <cacheField name="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].[Numer Sali Egzaminacyjnej]" caption="Numer Sali Egzaminacyjnej" numFmtId="0" hierarchy="26" level="1">
       <sharedItems count="5">
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[162]" c="162"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[421]" c="421"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[793]" c="793"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[895]" c="895"/>
-        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[979]" c="979"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[402]" c="402"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[425]" c="425"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[574]" c="574"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[633]" c="633"/>
+        <s v="[Termin Egzaminu].[Numer Sali Egzaminacyjnej].&amp;[666]" c="666"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Skarga].[Typ Skargi].[Typ Skargi]" caption="Typ Skargi" numFmtId="0" hierarchy="21" level="1">
@@ -2646,7 +2936,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.82895127315" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="KanarekLife" refreshedDate="45636.854912962961" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC306A8E-2BC3-446B-BB60-44BDA1DF0736}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Measures].[Liczba skarg]" caption="Liczba skarg" numFmtId="0" hierarchy="37" level="32767"/>
@@ -2793,23 +3083,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="250" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55103A3D-AB2F-410A-BFC7-F37972FB508E}" name="Tabela przestawna2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B139" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -2818,9 +3124,399 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="138">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i r="1">
       <x/>
@@ -2928,7 +3624,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="268" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AC1A645-D905-4686-885A-18B06F13B08F}" name="Tabela przestawna11" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3016,7 +3712,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="271" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABDFE37C-A315-4E97-9E22-9A3C4E804529}" name="Tabela przestawna12" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3111,20 +3807,33 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="247" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CC55A2-2A79-4877-B00F-7D11D7F354D6}" name="Tabela przestawna3" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
+      <items count="5">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3133,11 +3842,38 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="55">
     <i>
       <x/>
     </i>
     <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
@@ -3145,6 +3881,129 @@
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3234,7 +4093,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="253" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7352233A-20C6-42ED-B9F7-99BFBA8C95C0}" name="Tabela przestawna4" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3355,23 +4214,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="262" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12484503-3E65-4FEE-9C7F-6299D4F5B102}" name="Tabela przestawna5" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B139" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3380,9 +4255,399 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="138">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i r="1">
       <x/>
@@ -3490,23 +4755,39 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="259" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8090F95E-C009-476D-A29B-114E888E0BAC}" name="Tabela przestawna6" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B139" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -3515,9 +4796,399 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="138">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i r="1">
       <x/>
@@ -3625,50 +5296,67 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="274" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B207FE6-CB9C-485B-BA76-CAAE9F938CE3}" name="Tabela przestawna7" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="1">
-        <item c="1" x="0" d="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
-      <items count="5">
+      <items count="12">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
         <item c="1" x="3"/>
         <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+        <item c="1" x="9"/>
+        <item c="1" x="10"/>
+        <item x="11" d="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
+    <i>
       <x v="1"/>
     </i>
-    <i r="1">
+    <i>
       <x v="2"/>
     </i>
-    <i r="1">
+    <i>
       <x v="3"/>
     </i>
-    <i r="1">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -3760,7 +5448,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="265" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E2D5957-C94E-44CA-8CC3-C05216CAD892}" name="Tabela przestawna8" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -3880,13 +5568,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="256" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92A79929-FF76-4EDC-A690-BFBA82F967F4}" name="Tabela przestawna9" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="44">
+      <items count="73">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3931,13 +5619,42 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="74">
     <i>
       <x/>
     </i>
@@ -4069,6 +5786,93 @@
     </i>
     <i>
       <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -4156,12 +5960,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="244" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24AB3054-8C01-40A0-93F3-A039E8162503}" name="Tabela przestawna10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
+      <items count="20">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4172,13 +5976,23 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -4208,6 +6022,36 @@
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -4588,9 +6432,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF11567-615D-40F7-9207-59265D9F3B66}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4613,7 +6457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4622,7 +6466,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>19.867238243699664</v>
+        <v>20.084498318881614</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4630,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>19.968560248279584</v>
+        <v>19.939065193146103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4638,7 +6482,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>19.974722419088117</v>
+        <v>19.967267683772537</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,7 +6490,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>19.939530906425606</v>
+        <v>19.959195513440342</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4654,23 +6498,1043 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>19.846046275108058</v>
+        <v>19.92884225376951</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19.867617107942973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4">
+        <v>19.879606423466072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20.002028576468511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20.0230675839741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4">
+        <v>19.947789399665993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4">
+        <v>19.870027752081405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20.070872199249926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20.022695035460991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>19.898243119731898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20.028604786923527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>19.892424382573306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19.91108545034642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19.815567523625649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19.990969455511287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4">
+        <v>19.87810716258516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4">
+        <v>19.918911063747334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4">
+        <v>19.853163444639719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4">
+        <v>19.9628590772802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20.070181918921413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20.029623769338958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>19.941966574387369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>19.985899056695516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20.00359778597786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20.005360443622919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4">
+        <v>19.853434816549569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4">
+        <v>19.911004953998585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20.01943719176095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19.990569526627219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4">
+        <v>20.012477876106196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="4">
+        <v>19.961007311129162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4">
+        <v>19.8496347764119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>19.869147659063625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>19.939499233520696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>19.974938445304257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>19.977939819088057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4">
+        <v>19.984446388645864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20.034374422472741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="4">
+        <v>19.994912589029692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="4">
+        <v>19.919321971100409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4">
+        <v>19.841038865352736</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="4">
+        <v>19.902129719264281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="4">
+        <v>19.841749281942</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="4">
+        <v>19.977789576143703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>19.939311944337071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4">
+        <v>19.906071136549468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>19.840307882862955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>20.009658103148542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
+        <v>19.994748479823105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="4">
+        <v>19.936276783229758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4">
+        <v>19.973059096176129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="4">
+        <v>19.878654455794294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="4">
+        <v>19.981048349819726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="4">
+        <v>19.949412218153785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="4">
+        <v>19.962438708483671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="4">
+        <v>20.038903706428769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>20.090951019278663</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4">
+        <v>19.990320937340805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4">
+        <v>19.913135593220339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4">
+        <v>19.961495592258586</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4">
+        <v>19.897987998588068</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4">
+        <v>19.875092114959468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="4">
+        <v>19.948655731340388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="4">
+        <v>20.037410453701249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="4">
+        <v>19.854644383987562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="4">
+        <v>19.990694211799738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="4">
+        <v>20.005240415555761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4">
+        <v>19.960212457749879</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4">
+        <v>19.941587133262637</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4">
+        <v>19.970615149974581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4">
+        <v>19.960733708175869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4">
+        <v>19.892572428543652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4">
+        <v>19.972484416740873</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="4">
+        <v>19.893520309477758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="4">
+        <v>19.930101569713759</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="4">
+        <v>19.99867759851891</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="4">
+        <v>20.085329799164032</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="4">
+        <v>19.862518727416937</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4">
+        <v>19.892374606699981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4">
+        <v>19.916207596404757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4">
+        <v>19.828324667312945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4">
+        <v>19.972324366169925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4">
+        <v>20.033985782452039</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="4">
+        <v>19.979571085228322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4">
+        <v>19.977026401111626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="4">
+        <v>19.979706767647343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="4">
+        <v>20.000265205091939</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4">
+        <v>19.91703056768559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="4">
+        <v>19.991940713293193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="4">
+        <v>19.933504288619684</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="4">
+        <v>19.918696711327648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="4">
+        <v>19.988337162042765</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="4">
+        <v>19.904334966263054</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>19.933346942941718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4">
+        <v>20.022370123867628</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="4">
+        <v>19.865056687252281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="4">
+        <v>20.009711538461538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="4">
+        <v>19.881497266746965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="4">
+        <v>19.845964696583824</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="4">
+        <v>20.033400712291847</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="4">
+        <v>19.984375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" s="4">
+        <v>19.986877368080584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="4">
+        <v>19.920958199980603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="4">
+        <v>20.024323609764696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4">
-        <v>21.618733772718194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4">
+        <v>19.912248452012385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4">
+        <v>19.876463998370507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4">
+        <v>19.979091310101456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4">
+        <v>19.878163680029559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="4">
+        <v>19.904876406655767</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" s="4">
+        <v>19.987800335257962</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="4">
+        <v>19.937916975537433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="4">
+        <v>19.904827968923417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" s="4">
+        <v>19.990457661663886</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="4">
+        <v>19.96539725497777</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="4">
+        <v>19.858338759185191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="4">
+        <v>19.982092198581562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="4">
+        <v>19.937128953771289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4">
+        <v>19.877947154471546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="4">
+        <v>19.935024752475247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4">
+        <v>19.84192835878229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="4">
+        <v>19.956188187448006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="4">
+        <v>21.678244395326807</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>20.110453914056549</v>
+      <c r="B139" s="4">
+        <v>19.95638511880512</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +7571,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>20</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4752,7 +7616,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +7626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D880E4-2621-4FC4-8DEC-27E0368A0A53}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -4784,40 +7648,432 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>45</v>
+      <c r="B56" s="4">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -4852,15 +8108,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>12.365145228215768</v>
+        <v>16.695303764442787</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4">
-        <v>12.145604395604396</v>
+        <v>16.686256218905474</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4868,7 +8124,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>12.408333333333333</v>
+        <v>16.669606807876267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4876,15 +8132,15 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>12.392211404728791</v>
+        <v>16.729100529100528</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
-        <v>12.123822341857336</v>
+        <v>16.677102745682692</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4892,7 +8148,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>12.285714285714286</v>
+        <v>16.691459472899055</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +8158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F1B5BA-D48C-4270-B24E-1BE835D32419}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -4925,7 +8181,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4966,23 +8222,1043 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>2070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4">
-        <v>25035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="4">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="4">
+        <v>31670</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>27105</v>
+      <c r="B139" s="4">
+        <v>37425</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +9268,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782E0A8-403D-4906-8BBE-03AEF1F8CFF6}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -5015,7 +9291,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5024,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>12.766169154228855</v>
+        <v>16.919161676646706</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5032,7 +9308,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>12.777586206896551</v>
+        <v>16.888698630136986</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5040,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>12.846737481031866</v>
+        <v>16.92488262910798</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5048,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>12.750778816199377</v>
+        <v>16.600321027287318</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5056,23 +9332,1043 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>13.066445182724253</v>
+        <v>16.653450807635831</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4">
+        <v>16.577170418006432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4">
+        <v>16.698085419734905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4">
+        <v>16.780984719864176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4">
+        <v>16.879821958456972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4">
+        <v>16.630769230769232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4">
+        <v>16.691813804173353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>16.661742983751846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16.832478632478633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16.766721044045678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16.761240310077518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>16.828101644245141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>16.679661016949151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="4">
+        <v>16.783060921248143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4">
+        <v>16.71076923076923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4">
+        <v>16.756493506493506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4">
+        <v>16.735294117647058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4">
+        <v>16.838762214983714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="4">
+        <v>16.815217391304348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>16.853333333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>16.502538071065988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>16.720325203252031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>16.806201550387598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <v>16.671802773497689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4">
+        <v>16.555735056542812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4">
+        <v>16.84649776453055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4">
+        <v>16.869494290375204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4">
+        <v>16.717156105100464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="4">
+        <v>16.691525423728812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4">
+        <v>16.460410557184751</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>16.789147286821706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>16.697952218430036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>16.698972099853158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
+        <v>16.822981366459626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4">
+        <v>16.618739903069468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="4">
+        <v>16.598159509202453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="4">
+        <v>16.761240310077518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="4">
+        <v>16.81619937694704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4">
+        <v>16.965624999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="4">
+        <v>16.74230145867099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="4">
+        <v>16.630200308166408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="4">
+        <v>16.692762186115214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>16.853420195439739</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4">
+        <v>16.583050847457628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4">
+        <v>16.819940476190474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4">
+        <v>16.781199351701783</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
+        <v>16.80185758513932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="4">
+        <v>16.61171032357473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4">
+        <v>16.64951768488746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="4">
+        <v>16.749262536873157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="4">
+        <v>16.615975422427034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="4">
+        <v>16.631410256410255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="4">
+        <v>16.706336939721794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="4">
+        <v>16.753466872110941</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>16.939062499999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4">
+        <v>16.806506849315067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4">
+        <v>16.807121661721069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4">
+        <v>16.755517826825127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4">
+        <v>16.838038632986628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="4">
+        <v>16.804953560371516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="4">
+        <v>16.644588045234247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="4">
+        <v>16.701624815361889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="4">
+        <v>16.762214983713356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="4">
+        <v>16.712286158631414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="4">
+        <v>16.708141321044547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="4">
+        <v>16.701612903225808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4">
+        <v>16.814264487369986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4">
+        <v>16.585160202360878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4">
+        <v>16.665130568356375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4">
+        <v>16.510433386837882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="4">
+        <v>16.490455212922175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="4">
+        <v>16.704361873990308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="4">
+        <v>16.842923794712288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="4">
+        <v>16.754800590841949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="4">
+        <v>16.912068965517243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="4">
+        <v>16.735988200589972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4">
+        <v>16.805598755832037</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="4">
+        <v>16.906862745098039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="4">
+        <v>16.785502958579883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4">
+        <v>16.667741935483871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4">
+        <v>16.724755700325733</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="4">
+        <v>16.694444444444443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4">
+        <v>16.788491446345258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="4">
+        <v>16.773615635179151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="4">
+        <v>16.783382789317507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4">
+        <v>16.674757281553397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="4">
+        <v>16.633281972265024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="4">
+        <v>16.606461086637299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" s="4">
+        <v>16.812286689419796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" s="4">
+        <v>16.668630338733433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="4">
+        <v>16.773643410852713</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>16.689948892674618</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4">
+        <v>16.720247295208654</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="4">
+        <v>16.846273291925467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="4">
+        <v>16.910569105691057</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="4">
+        <v>16.553680981595093</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="4">
+        <v>16.794985250737462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="4">
+        <v>16.865259740259742</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="4">
+        <v>16.717156105100464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" s="4">
+        <v>16.934272300469484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="4">
+        <v>16.657512116316639</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="4">
+        <v>16.735988200589972</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4">
-        <v>9.1535648994515544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4">
+        <v>16.644122383252817</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="4">
+        <v>16.614213197969544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4">
+        <v>16.767751479289942</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4">
+        <v>16.732612055641422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="4">
+        <v>16.715434083601288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" s="4">
+        <v>16.545454545454547</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="4">
+        <v>16.577572964669738</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B127" s="4">
+        <v>16.659476117103235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" s="4">
+        <v>16.683153013910356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="4">
+        <v>16.553599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="4">
+        <v>16.694099378881987</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B131" s="4">
+        <v>16.661742983751846</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="4">
+        <v>16.653160453808752</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="4">
+        <v>16.706281833616298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="4">
+        <v>16.858420268256335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4">
+        <v>16.822294022617125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="4">
+        <v>16.773643410852713</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="4">
+        <v>11.290552584670232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>12.285714285714286</v>
+      <c r="B139" s="4">
+        <v>16.691459472899055</v>
       </c>
     </row>
   </sheetData>
@@ -5082,7 +10378,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CFB149-A7B9-4595-BF26-9A0857676217}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -5113,56 +10409,98 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5343</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="4">
-        <v>311</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="4">
-        <v>304</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B7" s="4">
-        <v>355</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="4">
-        <v>293</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="4">
-        <v>260</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
-        <v>1523</v>
+      <c r="B15" s="4">
+        <v>54272</v>
       </c>
     </row>
   </sheetData>
@@ -5202,42 +10540,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5245,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>24</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -5255,15 +10593,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4396E4A6-D249-4F8F-BBB0-833858200275}">
-  <dimension ref="A2:B49"/>
+  <dimension ref="A2:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5285,15 +10623,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
@@ -5301,7 +10639,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -5309,63 +10647,63 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -5373,199 +10711,199 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B36" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B38" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B39" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
@@ -5573,74 +10911,306 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="B49" s="4">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5650,7 +11220,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68659609-96BE-43A8-866E-45E48E4CABC3}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -5672,90 +11242,170 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B8" s="4">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B10" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
-        <v>225</v>
+      <c r="B22" s="4">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
